--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynologyDrive\Python\Varia\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD029023-2D84-4914-89E1-9A7662A500C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63972C-768F-4F57-9C4D-00BF1281484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="37230" windowHeight="18430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="2630" windowWidth="37230" windowHeight="17350" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -4198,11 +4198,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16A65A-1428-48F4-B8B6-2C57407FD7EB}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -6948,11 +6969,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Tabelle3"/>
+  <sheetPr codeName="Tabelle3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="9" x14ac:dyDescent="0.25"/>
@@ -7952,8 +7975,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.27559055118110237" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;16Tableau DE 16 Teams</oddHeader>
   </headerFooter>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynologyDrive\Python\Varia\beach_tournament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63972C-768F-4F57-9C4D-00BF1281484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F28A5-D933-45EC-9C40-3C02BEDE2ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="2630" windowWidth="37230" windowHeight="17350" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1522" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -1772,23 +1772,23 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="59" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" customWidth="1"/>
-    <col min="8" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="59" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" style="59" customWidth="1"/>
-    <col min="12" max="13" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="6.46484375" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="60" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="4.46484375" customWidth="1"/>
+    <col min="9" max="9" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" style="59" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" style="59" customWidth="1"/>
+    <col min="12" max="13" width="14.46484375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>Saina Billeter / Samantha Wüst</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57">
         <v>2</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>Alexa Leonie Markl / Maxima Julia Markl</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57">
         <v>3</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>Francesca Amabile / Meli Padilla</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57">
         <v>4</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>Olga Barinova / Alena Koshcheeva</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57">
         <v>5</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>Tara Matic / Jana Heim</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>Eva Kämpfen / Chiara Maurer</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57">
         <v>7</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>Estefania Garcia / Nadja Egli</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57">
         <v>8</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>Lisa van Polanen / Olivia Berner</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>Gabriela Ribaut / Selina Brunner</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57">
         <v>10</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>Elena Sauser / Livia Lauper</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="57">
         <v>11</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>Ramona Schwab / Aline Schinnerl</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>Kaia Gränicher / Lena Fluri</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57">
         <v>13</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>Laura Wiedemann / Isabel Büchelin</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57">
         <v>14</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>Nora Wälti / Alysha Joanna Brunschweiler</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="57">
         <v>15</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>bye Bye / Bye Bye</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>Alice Bondi / Elisa Galeri</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="61" t="s">
         <v>31</v>
       </c>
@@ -2384,16 +2384,16 @@
       <c r="E19" s="64"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J23"/>
     </row>
   </sheetData>
@@ -2415,24 +2415,24 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="4.6328125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="3.453125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="66" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" style="66" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" style="66" customWidth="1"/>
-    <col min="12" max="20" width="3.81640625" style="66" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="3" width="4.59765625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="3.46484375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" style="66" customWidth="1"/>
+    <col min="8" max="10" width="3.796875" style="66" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" style="66" customWidth="1"/>
+    <col min="12" max="20" width="3.796875" style="66" customWidth="1"/>
+    <col min="21" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A31" si="3">SUM(A2,1)</f>
         <v>2</v>
@@ -2603,7 +2603,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="92">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2663,7 +2663,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="92">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2671,7 +2671,9 @@
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="82">
+        <v>4</v>
+      </c>
       <c r="D5" s="132">
         <v>0.42708333333333331</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="92">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2729,7 +2731,9 @@
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82">
+        <v>5</v>
+      </c>
       <c r="D6" s="132">
         <v>0.42708333333333331</v>
       </c>
@@ -2779,7 +2783,7 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="92">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2787,7 +2791,9 @@
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="82">
+        <v>6</v>
+      </c>
       <c r="D7" s="132">
         <v>0.42708333333333331</v>
       </c>
@@ -2837,7 +2843,7 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="92">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2845,7 +2851,9 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="82">
+        <v>4</v>
+      </c>
       <c r="D8" s="132">
         <v>0.44791666666666669</v>
       </c>
@@ -2895,7 +2903,7 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="94">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2904,9 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="95"/>
-      <c r="D9" s="133">
-        <v>0.44791666666666669</v>
-      </c>
+      <c r="D9" s="133"/>
       <c r="E9" s="6" t="str">
         <f>IF(Anmeldung!$I$16=" / ",CONCATENATE("Seed #",Anmeldung!$A$16),Anmeldung!$I$16)</f>
         <v>Bye / Bye</v>
@@ -2951,7 +2957,7 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="98">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2959,8 +2965,12 @@
       <c r="B10" s="7">
         <v>13</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="99">
+        <v>5</v>
+      </c>
+      <c r="D10" s="132">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
         <v>Loser Match #1</v>
@@ -3007,7 +3017,7 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3015,8 +3025,12 @@
       <c r="B11" s="5">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="82">
+        <v>6</v>
+      </c>
+      <c r="D11" s="132">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E11" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Loser Match #",$A$4),IF($H$4&lt;$J$4,$E$4,$G$4))</f>
         <v>Loser Match #3</v>
@@ -3063,7 +3077,7 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3071,8 +3085,12 @@
       <c r="B12" s="5">
         <v>13</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="82">
+        <v>4</v>
+      </c>
+      <c r="D12" s="83">
+        <v>0.46875</v>
+      </c>
       <c r="E12" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Loser Match #",$A$6),IF($H$6&lt;$J$6,$E$6,$G$6))</f>
         <v>Loser Match #5</v>
@@ -3119,7 +3137,7 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3128,7 +3146,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Loser Match #",$A$8),IF($H$8&lt;$J$8,$E$8,$G$8))</f>
         <v>Loser Match #7</v>
@@ -3173,7 +3191,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="98">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3181,8 +3199,12 @@
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="99">
+        <v>5</v>
+      </c>
+      <c r="D14" s="83">
+        <v>0.46875</v>
+      </c>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
         <v>Winner Match #1</v>
@@ -3229,7 +3251,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="92">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3237,8 +3259,12 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="82">
+        <v>4</v>
+      </c>
+      <c r="D15" s="83">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E15" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Winner Match #",$A$4),IF($H$4&gt;$J$4,$E$4,$G$4))</f>
         <v>Winner Match #3</v>
@@ -3285,7 +3311,7 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="92">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3293,8 +3319,12 @@
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="82">
+        <v>5</v>
+      </c>
+      <c r="D16" s="83">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E16" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Winner Match #",$A$6),IF($H$6&gt;$J$6,$E$6,$G$6))</f>
         <v>Winner Match #5</v>
@@ -3341,7 +3371,7 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="94">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3349,8 +3379,12 @@
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="95">
+        <v>6</v>
+      </c>
+      <c r="D17" s="83">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E17" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Winner Match #",$A$8),IF($H$8&gt;$J$8,$E$8,$G$8))</f>
         <v>Winner Match #7</v>
@@ -3397,7 +3431,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="98">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3405,8 +3439,12 @@
       <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="82">
+        <v>4</v>
+      </c>
+      <c r="D18" s="100">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E18" s="7" t="str">
         <f>IF($H$13=$J$13,CONCATENATE("Winner Match #",$A$13),IF($H$13&gt;$J$13,$E$13,$G$13))</f>
         <v>Loser Match #7</v>
@@ -3453,7 +3491,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="92">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -3461,8 +3499,12 @@
       <c r="B19" s="5">
         <v>9</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="82">
+        <v>5</v>
+      </c>
+      <c r="D19" s="100">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
         <v>Winner Match #11</v>
@@ -3509,7 +3551,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="92">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -3517,8 +3559,12 @@
       <c r="B20" s="5">
         <v>9</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
+      <c r="C20" s="95">
+        <v>6</v>
+      </c>
+      <c r="D20" s="100">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
         <v>Winner Match #10</v>
@@ -3565,7 +3611,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="94">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -3573,8 +3619,12 @@
       <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="82">
+        <v>4</v>
+      </c>
+      <c r="D21" s="96">
+        <v>0.53125</v>
+      </c>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
         <v>Winner Match #9</v>
@@ -3621,7 +3671,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="98">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3629,8 +3679,12 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="82">
+        <v>5</v>
+      </c>
+      <c r="D22" s="96">
+        <v>0.53125</v>
+      </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
         <v>Winner Match #13</v>
@@ -3677,7 +3731,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="94">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3685,8 +3739,12 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="95">
+        <v>6</v>
+      </c>
+      <c r="D23" s="96">
+        <v>0.53125</v>
+      </c>
       <c r="E23" s="6" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Winner Match #",$A$16),IF($H$16&gt;$J$16,$E$16,$G$16))</f>
         <v>Winner Match #15</v>
@@ -3733,7 +3791,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="98">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3741,8 +3799,12 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="82">
+        <v>4</v>
+      </c>
+      <c r="D24" s="100">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
         <v>Winner Match #17</v>
@@ -3789,7 +3851,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="94">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -3797,8 +3859,12 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
+      <c r="C25" s="82">
+        <v>5</v>
+      </c>
+      <c r="D25" s="100">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
         <v>Winner Match #19</v>
@@ -3845,7 +3911,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="98">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3853,8 +3919,12 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
+      <c r="C26" s="95">
+        <v>6</v>
+      </c>
+      <c r="D26" s="100">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
         <v>Winner Match #23</v>
@@ -3901,7 +3971,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="94">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3957,7 +4027,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="98">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4013,7 +4083,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="94">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -4069,7 +4139,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="98">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -4125,7 +4195,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="94">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -4202,30 +4272,30 @@
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>Resultate!A1</f>
         <v>Match
@@ -4294,7 +4364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>Resultate!A2</f>
         <v>1</v>
@@ -4386,7 +4456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>Resultate!A3</f>
         <v>2</v>
@@ -4478,7 +4548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>Resultate!A4</f>
         <v>3</v>
@@ -4570,7 +4640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>Resultate!A5</f>
         <v>4</v>
@@ -4581,7 +4651,7 @@
       </c>
       <c r="C5">
         <f>Resultate!C5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="137">
         <f>Resultate!D5</f>
@@ -4656,13 +4726,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>Resultate!A6</f>
         <v>5</v>
@@ -4673,7 +4743,7 @@
       </c>
       <c r="C6">
         <f>Resultate!C6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="137">
         <f>Resultate!D6</f>
@@ -4748,13 +4818,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>Resultate!A7</f>
         <v>6</v>
@@ -4765,7 +4835,7 @@
       </c>
       <c r="C7">
         <f>Resultate!C7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="137">
         <f>Resultate!D7</f>
@@ -4840,13 +4910,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>Resultate!A8</f>
         <v>7</v>
@@ -4857,7 +4927,7 @@
       </c>
       <c r="C8">
         <f>Resultate!C8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="137">
         <f>Resultate!D8</f>
@@ -4932,13 +5002,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>Resultate!A9</f>
         <v>8</v>
@@ -4953,7 +5023,7 @@
       </c>
       <c r="D9" s="137">
         <f>Resultate!D9</f>
-        <v>0.44791666666666669</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
         <f>Resultate!E9</f>
@@ -5030,7 +5100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>Resultate!A10</f>
         <v>9</v>
@@ -5041,11 +5111,11 @@
       </c>
       <c r="C10">
         <f>Resultate!C10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="137">
         <f>Resultate!D10</f>
-        <v>0</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E10" t="str">
         <f>Resultate!E10</f>
@@ -5116,13 +5186,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court5</v>
       </c>
       <c r="S10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>Resultate!A11</f>
         <v>10</v>
@@ -5133,11 +5203,11 @@
       </c>
       <c r="C11">
         <f>Resultate!C11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="137">
         <f>Resultate!D11</f>
-        <v>0</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E11" t="str">
         <f>Resultate!E11</f>
@@ -5208,13 +5278,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>Resultate!A12</f>
         <v>11</v>
@@ -5225,11 +5295,11 @@
       </c>
       <c r="C12">
         <f>Resultate!C12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="137">
         <f>Resultate!D12</f>
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="E12" t="str">
         <f>Resultate!E12</f>
@@ -5300,13 +5370,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court4</v>
       </c>
       <c r="S12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>Resultate!A13</f>
         <v>12</v>
@@ -5398,7 +5468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>Resultate!A14</f>
         <v>13</v>
@@ -5409,11 +5479,11 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="137">
         <f>Resultate!D14</f>
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
@@ -5484,13 +5554,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court5</v>
       </c>
       <c r="S14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>Resultate!A15</f>
         <v>14</v>
@@ -5501,11 +5571,11 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="137">
         <f>Resultate!D15</f>
-        <v>0</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E15" t="str">
         <f>Resultate!E15</f>
@@ -5576,13 +5646,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court4</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>Resultate!A16</f>
         <v>15</v>
@@ -5593,11 +5663,11 @@
       </c>
       <c r="C16">
         <f>Resultate!C16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="137">
         <f>Resultate!D16</f>
-        <v>0</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E16" t="str">
         <f>Resultate!E16</f>
@@ -5668,13 +5738,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court5</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>Resultate!A17</f>
         <v>16</v>
@@ -5685,11 +5755,11 @@
       </c>
       <c r="C17">
         <f>Resultate!C17</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="137">
         <f>Resultate!D17</f>
-        <v>0</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E17" t="str">
         <f>Resultate!E17</f>
@@ -5760,13 +5830,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court6</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>Resultate!A18</f>
         <v>17</v>
@@ -5777,11 +5847,11 @@
       </c>
       <c r="C18">
         <f>Resultate!C18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="137">
         <f>Resultate!D18</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E18" t="str">
         <f>Resultate!E18</f>
@@ -5852,13 +5922,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court4</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>Resultate!A19</f>
         <v>18</v>
@@ -5869,11 +5939,11 @@
       </c>
       <c r="C19">
         <f>Resultate!C19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="137">
         <f>Resultate!D19</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
@@ -5944,13 +6014,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court5</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>Resultate!A20</f>
         <v>19</v>
@@ -5961,11 +6031,11 @@
       </c>
       <c r="C20">
         <f>Resultate!C20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="137">
         <f>Resultate!D20</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
@@ -6036,13 +6106,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court6</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>Resultate!A21</f>
         <v>20</v>
@@ -6053,11 +6123,11 @@
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="137">
         <f>Resultate!D21</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
@@ -6128,13 +6198,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_6_court4</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>Resultate!A22</f>
         <v>21</v>
@@ -6145,11 +6215,11 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="137">
         <f>Resultate!D22</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
@@ -6220,13 +6290,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_6_court5</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>Resultate!A23</f>
         <v>22</v>
@@ -6237,11 +6307,11 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D23" s="137">
         <f>Resultate!D23</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="E23" t="str">
         <f>Resultate!E23</f>
@@ -6312,13 +6382,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court6</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>Resultate!A24</f>
         <v>23</v>
@@ -6329,11 +6399,11 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="137">
         <f>Resultate!D24</f>
-        <v>0</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
@@ -6404,13 +6474,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_7_court4</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>Resultate!A25</f>
         <v>24</v>
@@ -6421,11 +6491,11 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="137">
         <f>Resultate!D25</f>
-        <v>0</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
@@ -6496,13 +6566,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_7_court5</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>Resultate!A26</f>
         <v>25</v>
@@ -6513,11 +6583,11 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="137">
         <f>Resultate!D26</f>
-        <v>0</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E26" t="str">
         <f>Resultate!E26</f>
@@ -6588,13 +6658,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_6_court6</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>Resultate!A27</f>
         <v>26</v>
@@ -6686,7 +6756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>Resultate!A28</f>
         <v>27</v>
@@ -6778,7 +6848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>Resultate!A29</f>
         <v>28</v>
@@ -6870,7 +6940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>Resultate!A30</f>
         <v>29</v>
@@ -6974,20 +7044,20 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="12.6328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.6328125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="14.59765625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="12.59765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.59765625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$2," ")</f>
         <v xml:space="preserve">Billeter / Wüst </v>
@@ -7002,7 +7072,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="107"/>
       <c r="B2"/>
       <c r="C2" s="14"/>
@@ -7014,7 +7084,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$2,"")</f>
         <v>1</v>
@@ -7034,7 +7104,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$2," : ",Resultate!$J$2,")")</f>
         <v>( : )</v>
@@ -7051,7 +7121,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$2," ")</f>
         <v xml:space="preserve">Bondi / Galeri </v>
@@ -7068,7 +7138,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$14,"")</f>
@@ -7088,7 +7158,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$3," ")</f>
         <v xml:space="preserve">Ribaut / Brunner </v>
@@ -7110,7 +7180,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="107"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -7131,7 +7201,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$3,"")</f>
         <v>2</v>
@@ -7154,7 +7224,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$3," : ",Resultate!$J$3,")")</f>
         <v>( : )</v>
@@ -7178,7 +7248,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$3," ")</f>
         <v xml:space="preserve">van Polanen / Berner </v>
@@ -7199,7 +7269,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="111"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="str">
@@ -7239,7 +7309,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$4," ")</f>
         <v xml:space="preserve">Matic / Heim </v>
@@ -7270,7 +7340,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="107"/>
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
@@ -7288,7 +7358,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$4,"")</f>
         <v>3</v>
@@ -7308,7 +7378,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$4," : ",Resultate!$J$4,")")</f>
         <v>( : )</v>
@@ -7334,7 +7404,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$4," ")</f>
         <v xml:space="preserve">Gränicher / Fluri </v>
@@ -7354,7 +7424,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="122"/>
       <c r="B18" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$15,"")</f>
@@ -7379,7 +7449,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$5," ")</f>
         <v xml:space="preserve">Wiedemann / Büchelin </v>
@@ -7401,7 +7471,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="107"/>
       <c r="B20" s="16"/>
       <c r="C20"/>
@@ -7431,7 +7501,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$5,"")</f>
         <v>4</v>
@@ -7454,7 +7524,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$5," : ",Resultate!$J$5,")")</f>
         <v>( : )</v>
@@ -7478,7 +7548,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$5," ")</f>
         <v xml:space="preserve">Barinova / Koshcheeva </v>
@@ -7495,7 +7565,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24" s="14"/>
       <c r="C24"/>
@@ -7515,7 +7585,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$6," ")</f>
         <v xml:space="preserve">Amabile / Padilla </v>
@@ -7532,7 +7602,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="107"/>
       <c r="B26"/>
       <c r="C26" s="14"/>
@@ -7553,7 +7623,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$6,"")</f>
         <v>5</v>
@@ -7567,7 +7637,7 @@
       <c r="F27" s="33"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$6," : ",Resultate!$J$6,")")</f>
         <v>( : )</v>
@@ -7585,7 +7655,7 @@
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$6," ")</f>
         <v xml:space="preserve">Wälti / Brunschweiler </v>
@@ -7596,7 +7666,7 @@
       <c r="G29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$16,"")</f>
@@ -7613,7 +7683,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$7," ")</f>
         <v xml:space="preserve">Schwab / Schinnerl </v>
@@ -7629,7 +7699,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:14" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="107"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7645,7 +7715,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$7,"")</f>
         <v>6</v>
@@ -7661,7 +7731,7 @@
       <c r="J33" s="114"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$7," : ",Resultate!$J$7,")")</f>
         <v>( : )</v>
@@ -7681,7 +7751,7 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$7," ")</f>
         <v xml:space="preserve">Kämpfen / Maurer </v>
@@ -7699,7 +7769,7 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="122"/>
       <c r="B36"/>
       <c r="C36" s="11" t="str">
@@ -7733,7 +7803,7 @@
       </c>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$8," ")</f>
         <v xml:space="preserve">Garcia / Egli </v>
@@ -7763,7 +7833,7 @@
       </c>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="107"/>
       <c r="B38" s="14"/>
       <c r="C38" s="16"/>
@@ -7779,7 +7849,7 @@
       <c r="K38" s="9"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$8,"")</f>
         <v>7</v>
@@ -7796,7 +7866,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$8," : ",Resultate!$J$8,")")</f>
         <v>( : )</v>
@@ -7822,7 +7892,7 @@
       <c r="K40" s="9"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$8," ")</f>
         <v xml:space="preserve">Sauser / Lauper </v>
@@ -7841,7 +7911,7 @@
       <c r="J41" s="19"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="122"/>
       <c r="B42" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$17,"")</f>
@@ -7867,7 +7937,7 @@
       <c r="K42" s="9"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$9," ")</f>
         <v xml:space="preserve">Bye / Bye </v>
@@ -7889,7 +7959,7 @@
       </c>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="107"/>
       <c r="B44" s="16"/>
       <c r="C44"/>
@@ -7911,7 +7981,7 @@
       </c>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$9,"")</f>
         <v>8</v>
@@ -7931,7 +8001,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$9," : ",Resultate!$J$9,")")</f>
         <v>(0 : 2)</v>
@@ -7948,7 +8018,7 @@
       <c r="J46"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$9," ")</f>
         <v xml:space="preserve">Markl / Markl </v>
@@ -7961,7 +8031,7 @@
       <c r="J47"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7994,15 +8064,15 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
@@ -8016,7 +8086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="73">
         <v>1</v>
       </c>
@@ -8033,7 +8103,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="73">
         <f>SUM(A2,1)</f>
         <v>2</v>
@@ -8051,7 +8121,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="73">
         <f>SUM(A3,1)</f>
         <v>3</v>
@@ -8069,7 +8139,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="73">
         <f>SUM(A4,1)</f>
         <v>4</v>
@@ -8087,7 +8157,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="73">
         <f>SUM(A5,1)</f>
         <v>5</v>
@@ -8105,7 +8175,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="73">
         <v>5</v>
       </c>
@@ -8122,7 +8192,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="73">
         <v>7</v>
       </c>
@@ -8139,7 +8209,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="73">
         <v>7</v>
       </c>
@@ -8156,7 +8226,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -8173,7 +8243,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="73">
         <v>9</v>
       </c>
@@ -8190,7 +8260,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="73">
         <v>9</v>
       </c>
@@ -8207,7 +8277,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="73">
         <v>9</v>
       </c>
@@ -8224,7 +8294,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="73">
         <v>13</v>
       </c>
@@ -8241,7 +8311,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73">
         <v>13</v>
       </c>
@@ -8258,7 +8328,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="73">
         <v>13</v>
       </c>
@@ -8275,7 +8345,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="74">
         <v>13</v>
       </c>
@@ -8292,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="75" t="s">
         <v>38</v>
       </c>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F28A5-D933-45EC-9C40-3C02BEDE2ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD4FB0D-CF22-4F21-B4DD-5784442DD1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="1522" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2415,8 +2415,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2508,31 +2508,39 @@
         <f>IF(Anmeldung!$I$17=" / ",CONCATENATE("Seed #",Anmeldung!$A$17),Anmeldung!$I$17)</f>
         <v>Bondi / Galeri</v>
       </c>
-      <c r="H2" s="67" t="str">
+      <c r="H2" s="67">
         <f t="shared" ref="H2:H15" si="0">IF(L2=N2,"",SUM(IF(L2&gt;N2,1,0),IF(O2&gt;Q2,1,0),IF(R2&lt;=T2,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="67" t="str">
+      <c r="J2" s="67">
         <f t="shared" ref="J2:J15" si="1">IF(L2=N2,"",SUM(IF(L2&lt;N2,1,0),IF(O2&lt;Q2,1,0),IF(R2&gt;=T2,0,1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K2" s="93">
         <f t="shared" ref="K2:K15" si="2">SUM(V2-U2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="86">
+        <v>13</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="N2" s="84">
+        <v>21</v>
+      </c>
+      <c r="O2" s="84">
+        <v>15</v>
+      </c>
       <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="84"/>
+      <c r="Q2" s="84">
+        <v>21</v>
+      </c>
       <c r="R2" s="82"/>
       <c r="S2" s="5" t="s">
         <v>17</v>
@@ -2628,31 +2636,39 @@
         <f>IF(Anmeldung!$I$13=" / ",CONCATENATE("Seed #",Anmeldung!$A$13),Anmeldung!$I$13)</f>
         <v>Gränicher / Fluri</v>
       </c>
-      <c r="H4" s="67" t="str">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="67" t="str">
+      <c r="J4" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K4" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="86"/>
+      <c r="L4" s="86">
+        <v>21</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
+      <c r="N4" s="84">
+        <v>12</v>
+      </c>
+      <c r="O4" s="84">
+        <v>21</v>
+      </c>
       <c r="P4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="84">
+        <v>12</v>
+      </c>
       <c r="R4" s="82"/>
       <c r="S4" s="5" t="s">
         <v>17</v>
@@ -2973,7 +2989,7 @@
       </c>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
-        <v>Loser Match #1</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -3033,7 +3049,7 @@
       </c>
       <c r="E11" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Loser Match #",$A$4),IF($H$4&lt;$J$4,$E$4,$G$4))</f>
-        <v>Loser Match #3</v>
+        <v>Gränicher / Fluri</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -3207,7 +3223,7 @@
       </c>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
-        <v>Winner Match #1</v>
+        <v>Bondi / Galeri</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
@@ -3267,7 +3283,7 @@
       </c>
       <c r="E15" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Winner Match #",$A$4),IF($H$4&gt;$J$4,$E$4,$G$4))</f>
-        <v>Winner Match #3</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
@@ -4389,13 +4405,13 @@
         <f>Resultate!G2</f>
         <v>Bondi / Galeri</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2">
         <f>Resultate!H2</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <f>Resultate!J2</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I2" s="137">
         <f>Resultate!K2</f>
@@ -4403,19 +4419,19 @@
       </c>
       <c r="J2">
         <f>Resultate!L2</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <f>Resultate!N2</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <f>Resultate!O2</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2">
         <f>Resultate!Q2</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N2">
         <f>Resultate!R2</f>
@@ -4450,7 +4466,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S2" t="s">
         <v>104</v>
@@ -4573,13 +4589,13 @@
         <f>Resultate!G4</f>
         <v>Gränicher / Fluri</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4">
         <f>Resultate!H4</f>
-        <v/>
-      </c>
-      <c r="H4" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <f>Resultate!J4</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I4" s="137">
         <f>Resultate!K4</f>
@@ -4587,19 +4603,19 @@
       </c>
       <c r="J4">
         <f>Resultate!L4</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <f>Resultate!N4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <f>Resultate!O4</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M4">
         <f>Resultate!Q4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <f>Resultate!R4</f>
@@ -4634,7 +4650,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S4" t="s">
         <v>104</v>
@@ -4726,7 +4742,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S5" t="s">
         <v>104</v>
@@ -4910,7 +4926,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S7" t="s">
         <v>104</v>
@@ -5002,7 +5018,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S8" t="s">
         <v>104</v>
@@ -5119,7 +5135,7 @@
       </c>
       <c r="E10" t="str">
         <f>Resultate!E10</f>
-        <v>Loser Match #1</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F10" t="str">
         <f>Resultate!G10</f>
@@ -5211,7 +5227,7 @@
       </c>
       <c r="E11" t="str">
         <f>Resultate!E11</f>
-        <v>Loser Match #3</v>
+        <v>Gränicher / Fluri</v>
       </c>
       <c r="F11" t="str">
         <f>Resultate!G11</f>
@@ -5278,7 +5294,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
@@ -5370,7 +5386,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court4</v>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S12" t="s">
         <v>104</v>
@@ -5487,7 +5503,7 @@
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
-        <v>Winner Match #1</v>
+        <v>Bondi / Galeri</v>
       </c>
       <c r="F14" t="str">
         <f>Resultate!G14</f>
@@ -5579,7 +5595,7 @@
       </c>
       <c r="E15" t="str">
         <f>Resultate!E15</f>
-        <v>Winner Match #3</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="F15" t="str">
         <f>Resultate!G15</f>
@@ -5646,7 +5662,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court4</v>
+        <v>upcoming_3_court4</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -5830,7 +5846,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court6</v>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
@@ -5922,7 +5938,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court4</v>
+        <v>upcoming_4_court4</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
@@ -6106,7 +6122,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court6</v>
+        <v>upcoming_3_court6</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6198,7 +6214,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court4</v>
+        <v>upcoming_5_court4</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6382,7 +6398,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court6</v>
+        <v>upcoming_4_court6</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6474,7 +6490,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_7_court4</v>
+        <v>upcoming_6_court4</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6658,7 +6674,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court6</v>
+        <v>upcoming_5_court6</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -7091,7 +7107,7 @@
       </c>
       <c r="B3" s="108" t="str">
         <f>CONCATENATE(Resultate!$E$14," ")</f>
-        <v xml:space="preserve">Winner Match #1 </v>
+        <v xml:space="preserve">Bondi / Galeri </v>
       </c>
       <c r="C3"/>
       <c r="D3" s="14"/>
@@ -7107,7 +7123,7 @@
     <row r="4" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$2," : ",Resultate!$J$2,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4"/>
@@ -7365,7 +7381,7 @@
       </c>
       <c r="B15" s="112" t="str">
         <f>CONCATENATE(Resultate!$E$15," ")</f>
-        <v xml:space="preserve">Winner Match #3 </v>
+        <v xml:space="preserve">Matic / Heim </v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
@@ -7381,7 +7397,7 @@
     <row r="16" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$4," : ",Resultate!$J$4,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="16"/>
@@ -7799,7 +7815,7 @@
       </c>
       <c r="J36" s="119" t="str">
         <f>CONCATENATE(Resultate!$E$11," ")</f>
-        <v xml:space="preserve">Loser Match #3 </v>
+        <v xml:space="preserve">Gränicher / Fluri </v>
       </c>
       <c r="K36"/>
     </row>
@@ -7977,7 +7993,7 @@
       </c>
       <c r="J44" s="119" t="str">
         <f>CONCATENATE(Resultate!$E$10," ")</f>
-        <v xml:space="preserve">Loser Match #1 </v>
+        <v xml:space="preserve">Billeter / Wüst </v>
       </c>
       <c r="K44" s="9"/>
     </row>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD4FB0D-CF22-4F21-B4DD-5784442DD1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BBF01-3847-45E9-8856-41B2B9EB7A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1522" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3308" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2658,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" s="84">
         <v>21</v>
@@ -2667,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="84">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R4" s="82"/>
       <c r="S4" s="5" t="s">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="K4">
         <f>Resultate!N4</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <f>Resultate!O4</f>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="M4">
         <f>Resultate!Q4</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N4">
         <f>Resultate!R4</f>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BBF01-3847-45E9-8856-41B2B9EB7A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1511DC-0C87-4A9B-8688-A93F52B41205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="3308" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2576,31 +2576,39 @@
         <f>IF(Anmeldung!$I$9=" / ",CONCATENATE("Seed #",Anmeldung!$A$9),Anmeldung!$I$9)</f>
         <v>van Polanen / Berner</v>
       </c>
-      <c r="H3" s="67" t="str">
+      <c r="H3" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="67" t="str">
+      <c r="J3" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K3" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L3" s="86"/>
+      <c r="L3" s="86">
+        <v>21</v>
+      </c>
       <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
+      <c r="N3" s="84">
+        <v>19</v>
+      </c>
+      <c r="O3" s="84">
+        <v>23</v>
+      </c>
       <c r="P3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="84"/>
+      <c r="Q3" s="84">
+        <v>21</v>
+      </c>
       <c r="R3" s="82"/>
       <c r="S3" s="5" t="s">
         <v>17</v>
@@ -2996,7 +3004,7 @@
       </c>
       <c r="G10" s="7" t="str">
         <f>IF($H$3=$J$3,CONCATENATE("Loser Match #",$A$3),IF($H$3&lt;$J$3,$E$3,$G$3))</f>
-        <v>Loser Match #2</v>
+        <v>van Polanen / Berner</v>
       </c>
       <c r="H10" s="69" t="str">
         <f t="shared" si="0"/>
@@ -3230,7 +3238,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f>IF($H$3=$J$3,CONCATENATE("Winner Match #",$A$3),IF($H$3&gt;$J$3,$E$3,$G$3))</f>
-        <v>Winner Match #2</v>
+        <v>Ribaut / Brunner</v>
       </c>
       <c r="H14" s="69" t="str">
         <f t="shared" si="0"/>
@@ -4497,13 +4505,13 @@
         <f>Resultate!G3</f>
         <v>van Polanen / Berner</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3">
         <f>Resultate!H3</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <f>Resultate!J3</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I3" s="137">
         <f>Resultate!K3</f>
@@ -4511,19 +4519,19 @@
       </c>
       <c r="J3">
         <f>Resultate!L3</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <f>Resultate!N3</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <f>Resultate!O3</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <f>Resultate!Q3</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <f>Resultate!R3</f>
@@ -4558,7 +4566,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S3" t="s">
         <v>104</v>
@@ -4834,7 +4842,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>in_progress</v>
       </c>
       <c r="S6" t="s">
         <v>104</v>
@@ -5139,7 +5147,7 @@
       </c>
       <c r="F10" t="str">
         <f>Resultate!G10</f>
-        <v>Loser Match #2</v>
+        <v>van Polanen / Berner</v>
       </c>
       <c r="G10" t="str">
         <f>Resultate!H10</f>
@@ -5202,7 +5210,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court5</v>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S10" t="s">
         <v>104</v>
@@ -5507,7 +5515,7 @@
       </c>
       <c r="F14" t="str">
         <f>Resultate!G14</f>
-        <v>Winner Match #2</v>
+        <v>Ribaut / Brunner</v>
       </c>
       <c r="G14" t="str">
         <f>Resultate!H14</f>
@@ -5570,7 +5578,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court5</v>
+        <v>upcoming_2_court5</v>
       </c>
       <c r="S14" t="s">
         <v>104</v>
@@ -5754,7 +5762,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court5</v>
+        <v>upcoming_3_court5</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
@@ -6030,7 +6038,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court5</v>
+        <v>upcoming_4_court5</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6306,7 +6314,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court5</v>
+        <v>upcoming_5_court5</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6582,7 +6590,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_7_court5</v>
+        <v>upcoming_6_court5</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -7224,7 +7232,7 @@
       </c>
       <c r="B9" s="113" t="str">
         <f>CONCATENATE(Resultate!$G$14," ")</f>
-        <v xml:space="preserve">Winner Match #2 </v>
+        <v xml:space="preserve">Ribaut / Brunner </v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
@@ -7243,7 +7251,7 @@
     <row r="10" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$3," : ",Resultate!$J$3,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="10"/>
@@ -7903,7 +7911,7 @@
       <c r="I40"/>
       <c r="J40" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$10," ")</f>
-        <v xml:space="preserve">Loser Match #2 </v>
+        <v xml:space="preserve">van Polanen / Berner </v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1511DC-0C87-4A9B-8688-A93F52B41205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12121E-EC6E-45A8-B157-8C5C4B0CE29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="3308" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="132">
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>IF(Anmeldung!$I$14=" / ",CONCATENATE("Seed #",Anmeldung!$A$14),Anmeldung!$I$14)</f>
@@ -2759,7 +2759,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="132">
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>IF(Anmeldung!$I$4=" / ",CONCATENATE("Seed #",Anmeldung!$A$4),Anmeldung!$I$4)</f>
@@ -2819,7 +2819,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="132">
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>IF(Anmeldung!$I$12=" / ",CONCATENATE("Seed #",Anmeldung!$A$12),Anmeldung!$I$12)</f>
@@ -2879,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="132">
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>IF(Anmeldung!$I$8=" / ",CONCATENATE("Seed #",Anmeldung!$A$8),Anmeldung!$I$8)</f>
@@ -2993,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="132">
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
@@ -3053,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="132">
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Loser Match #",$A$4),IF($H$4&lt;$J$4,$E$4,$G$4))</f>
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="83">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Loser Match #",$A$6),IF($H$6&lt;$J$6,$E$6,$G$6))</f>
@@ -3227,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="83">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
@@ -3284,10 +3284,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="83">
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Winner Match #",$A$4),IF($H$4&gt;$J$4,$E$4,$G$4))</f>
@@ -3344,10 +3344,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="83">
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Winner Match #",$A$6),IF($H$6&gt;$J$6,$E$6,$G$6))</f>
@@ -3404,10 +3404,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="83">
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Winner Match #",$A$8),IF($H$8&gt;$J$8,$E$8,$G$8))</f>
@@ -3464,10 +3464,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="82">
-        <v>4</v>
-      </c>
-      <c r="D18" s="100">
-        <v>0.51041666666666663</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="83">
+        <v>0.53125</v>
       </c>
       <c r="E18" s="7" t="str">
         <f>IF($H$13=$J$13,CONCATENATE("Winner Match #",$A$13),IF($H$13&gt;$J$13,$E$13,$G$13))</f>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="100">
-        <v>0.51041666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
@@ -3584,10 +3584,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="100">
-        <v>0.51041666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
@@ -3644,10 +3644,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="82">
-        <v>4</v>
-      </c>
-      <c r="D21" s="96">
-        <v>0.53125</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="100">
+        <v>0.5625</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
@@ -3704,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="96">
         <v>0.53125</v>
@@ -3764,7 +3764,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="96">
         <v>0.53125</v>
@@ -3815,7 +3815,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="98">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3824,10 +3824,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="82">
-        <v>4</v>
-      </c>
-      <c r="D24" s="100">
-        <v>0.55208333333333337</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="96">
+        <v>0.53125</v>
       </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
@@ -3884,10 +3884,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="100">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
@@ -3944,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="100">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
@@ -4003,8 +4003,12 @@
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
+      <c r="C27" s="95">
+        <v>6</v>
+      </c>
+      <c r="D27" s="100">
+        <v>0.5625</v>
+      </c>
       <c r="E27" s="6" t="str">
         <f>IF($H$25=$J$25,CONCATENATE("Winner Match #",$A$25),IF($H$25&gt;$J$25,$E$25,$G$25))</f>
         <v>Winner Match #24</v>
@@ -4679,7 +4683,7 @@
       </c>
       <c r="D5" s="137">
         <f>Resultate!D5</f>
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E5" t="str">
         <f>Resultate!E5</f>
@@ -4771,7 +4775,7 @@
       </c>
       <c r="D6" s="137">
         <f>Resultate!D6</f>
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E6" t="str">
         <f>Resultate!E6</f>
@@ -4863,7 +4867,7 @@
       </c>
       <c r="D7" s="137">
         <f>Resultate!D7</f>
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E7" t="str">
         <f>Resultate!E7</f>
@@ -4955,7 +4959,7 @@
       </c>
       <c r="D8" s="137">
         <f>Resultate!D8</f>
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E8" t="str">
         <f>Resultate!E8</f>
@@ -5139,7 +5143,7 @@
       </c>
       <c r="D10" s="137">
         <f>Resultate!D10</f>
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E10" t="str">
         <f>Resultate!E10</f>
@@ -5231,7 +5235,7 @@
       </c>
       <c r="D11" s="137">
         <f>Resultate!D11</f>
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E11" t="str">
         <f>Resultate!E11</f>
@@ -5323,7 +5327,7 @@
       </c>
       <c r="D12" s="137">
         <f>Resultate!D12</f>
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="str">
         <f>Resultate!E12</f>
@@ -5507,7 +5511,7 @@
       </c>
       <c r="D14" s="137">
         <f>Resultate!D14</f>
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
@@ -5595,11 +5599,11 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="137">
         <f>Resultate!D15</f>
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="str">
         <f>Resultate!E15</f>
@@ -5670,7 +5674,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court4</v>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -5687,11 +5691,11 @@
       </c>
       <c r="C16">
         <f>Resultate!C16</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="137">
         <f>Resultate!D16</f>
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E16" t="str">
         <f>Resultate!E16</f>
@@ -5762,7 +5766,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court5</v>
+        <v>upcoming_3_court4</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
@@ -5779,11 +5783,11 @@
       </c>
       <c r="C17">
         <f>Resultate!C17</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="137">
         <f>Resultate!D17</f>
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E17" t="str">
         <f>Resultate!E17</f>
@@ -5854,7 +5858,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v>upcoming_3_court5</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
@@ -5871,11 +5875,11 @@
       </c>
       <c r="C18">
         <f>Resultate!C18</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="137">
         <f>Resultate!D18</f>
-        <v>0.51041666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="E18" t="str">
         <f>Resultate!E18</f>
@@ -5946,7 +5950,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court4</v>
+        <v>upcoming_3_court6</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
@@ -5963,11 +5967,11 @@
       </c>
       <c r="C19">
         <f>Resultate!C19</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="137">
         <f>Resultate!D19</f>
-        <v>0.51041666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
@@ -6038,7 +6042,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court5</v>
+        <v>upcoming_4_court4</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6055,11 +6059,11 @@
       </c>
       <c r="C20">
         <f>Resultate!C20</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="137">
         <f>Resultate!D20</f>
-        <v>0.51041666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
@@ -6130,7 +6134,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court6</v>
+        <v>upcoming_4_court5</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6147,11 +6151,11 @@
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="137">
         <f>Resultate!D21</f>
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
@@ -6222,7 +6226,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court4</v>
+        <v>upcoming_4_court6</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6239,7 +6243,7 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="137">
         <f>Resultate!D22</f>
@@ -6314,7 +6318,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court5</v>
+        <v>upcoming_5_court4</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6331,7 +6335,7 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="137">
         <f>Resultate!D23</f>
@@ -6406,7 +6410,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court6</v>
+        <v>upcoming_5_court5</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6423,11 +6427,11 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="137">
         <f>Resultate!D24</f>
-        <v>0.55208333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
@@ -6498,7 +6502,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court4</v>
+        <v>upcoming_5_court6</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6515,11 +6519,11 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="137">
         <f>Resultate!D25</f>
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
@@ -6590,7 +6594,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court5</v>
+        <v>upcoming_6_court4</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6607,11 +6611,11 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="137">
         <f>Resultate!D26</f>
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E26" t="str">
         <f>Resultate!E26</f>
@@ -6682,7 +6686,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court6</v>
+        <v>upcoming_6_court5</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -6699,11 +6703,11 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="137">
         <f>Resultate!D27</f>
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="E27" t="str">
         <f>Resultate!E27</f>
@@ -6774,7 +6778,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_6_court6</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12121E-EC6E-45A8-B157-8C5C4B0CE29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0992DE-A129-4668-8A55-29E3AA67F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3308" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9698" yWindow="2242" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2712,31 +2712,39 @@
         <f>IF(Anmeldung!$I$5=" / ",CONCATENATE("Seed #",Anmeldung!$A$5),Anmeldung!$I$5)</f>
         <v>Barinova / Koshcheeva</v>
       </c>
-      <c r="H5" s="67" t="str">
+      <c r="H5" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="67" t="str">
+      <c r="J5" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K5" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="86"/>
+      <c r="L5" s="86">
+        <v>9</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
+      <c r="N5" s="84">
+        <v>21</v>
+      </c>
+      <c r="O5" s="84">
+        <v>11</v>
+      </c>
       <c r="P5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="84"/>
+      <c r="Q5" s="84">
+        <v>21</v>
+      </c>
       <c r="R5" s="82"/>
       <c r="S5" s="5" t="s">
         <v>17</v>
@@ -2832,31 +2840,39 @@
         <f>IF(Anmeldung!$I$7=" / ",CONCATENATE("Seed #",Anmeldung!$A$7),Anmeldung!$I$7)</f>
         <v>Kämpfen / Maurer</v>
       </c>
-      <c r="H7" s="67" t="str">
+      <c r="H7" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="67" t="str">
+      <c r="J7" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="86">
+        <v>21</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="84">
+        <v>12</v>
+      </c>
+      <c r="O7" s="84">
+        <v>21</v>
+      </c>
       <c r="P7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="84"/>
+      <c r="Q7" s="84">
+        <v>17</v>
+      </c>
       <c r="R7" s="82"/>
       <c r="S7" s="5" t="s">
         <v>17</v>
@@ -3064,7 +3080,7 @@
       </c>
       <c r="G11" s="5" t="str">
         <f>IF($H$5=$J$5,CONCATENATE("Loser Match #",$A$5),IF($H$5&lt;$J$5,$E$5,$G$5))</f>
-        <v>Loser Match #4</v>
+        <v>Wiedemann / Büchelin</v>
       </c>
       <c r="H11" s="67" t="str">
         <f t="shared" si="0"/>
@@ -3124,7 +3140,7 @@
       </c>
       <c r="G12" s="5" t="str">
         <f>IF($H$7=$J$7,CONCATENATE("Loser Match #",$A$7),IF($H$7&lt;$J$7,$E$7,$G$7))</f>
-        <v>Loser Match #6</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="H12" s="67" t="str">
         <f t="shared" si="0"/>
@@ -3298,7 +3314,7 @@
       </c>
       <c r="G15" s="5" t="str">
         <f>IF($H$5=$J$5,CONCATENATE("Winner Match #",$A$5),IF($H$5&gt;$J$5,$E$5,$G$5))</f>
-        <v>Winner Match #4</v>
+        <v>Barinova / Koshcheeva</v>
       </c>
       <c r="H15" s="67" t="str">
         <f t="shared" si="0"/>
@@ -3358,7 +3374,7 @@
       </c>
       <c r="G16" s="5" t="str">
         <f>IF($H$7=$J$7,CONCATENATE("Winner Match #",$A$7),IF($H$7&gt;$J$7,$E$7,$G$7))</f>
-        <v>Winner Match #6</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="H16" s="67" t="str">
         <f t="shared" ref="H16:H29" si="4">IF(L16=N16,"",SUM(IF(L16&gt;N16,1,0),IF(O16&gt;Q16,1,0),IF(R16&lt;=T16,0,1)))</f>
@@ -4693,13 +4709,13 @@
         <f>Resultate!G5</f>
         <v>Barinova / Koshcheeva</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5">
         <f>Resultate!H5</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f>Resultate!J5</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I5" s="137">
         <f>Resultate!K5</f>
@@ -4707,19 +4723,19 @@
       </c>
       <c r="J5">
         <f>Resultate!L5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <f>Resultate!N5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <f>Resultate!O5</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <f>Resultate!Q5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <f>Resultate!R5</f>
@@ -4754,7 +4770,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S5" t="s">
         <v>104</v>
@@ -4877,13 +4893,13 @@
         <f>Resultate!G7</f>
         <v>Kämpfen / Maurer</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7">
         <f>Resultate!H7</f>
-        <v/>
-      </c>
-      <c r="H7" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <f>Resultate!J7</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I7" s="137">
         <f>Resultate!K7</f>
@@ -4891,19 +4907,19 @@
       </c>
       <c r="J7">
         <f>Resultate!L7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <f>Resultate!N7</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <f>Resultate!O7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <f>Resultate!Q7</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <f>Resultate!R7</f>
@@ -4938,7 +4954,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S7" t="s">
         <v>104</v>
@@ -5030,7 +5046,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S8" t="s">
         <v>104</v>
@@ -5243,7 +5259,7 @@
       </c>
       <c r="F11" t="str">
         <f>Resultate!G11</f>
-        <v>Loser Match #4</v>
+        <v>Wiedemann / Büchelin</v>
       </c>
       <c r="G11" t="str">
         <f>Resultate!H11</f>
@@ -5306,7 +5322,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
@@ -5335,7 +5351,7 @@
       </c>
       <c r="F12" t="str">
         <f>Resultate!G12</f>
-        <v>Loser Match #6</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="G12" t="str">
         <f>Resultate!H12</f>
@@ -5398,7 +5414,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S12" t="s">
         <v>104</v>
@@ -5611,7 +5627,7 @@
       </c>
       <c r="F15" t="str">
         <f>Resultate!G15</f>
-        <v>Winner Match #4</v>
+        <v>Barinova / Koshcheeva</v>
       </c>
       <c r="G15" t="str">
         <f>Resultate!H15</f>
@@ -5674,7 +5690,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -5703,7 +5719,7 @@
       </c>
       <c r="F16" t="str">
         <f>Resultate!G16</f>
-        <v>Winner Match #6</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="G16" t="str">
         <f>Resultate!H16</f>
@@ -5766,7 +5782,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court4</v>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
@@ -5950,7 +5966,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court6</v>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
@@ -6042,7 +6058,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court4</v>
+        <v>upcoming_3_court4</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6226,7 +6242,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court6</v>
+        <v>upcoming_3_court6</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6318,7 +6334,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court4</v>
+        <v>upcoming_4_court4</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6502,7 +6518,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court6</v>
+        <v>upcoming_4_court6</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6594,7 +6610,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court4</v>
+        <v>upcoming_5_court4</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6778,7 +6794,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court6</v>
+        <v>upcoming_5_court6</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -7425,7 +7441,7 @@
       <c r="I16"/>
       <c r="J16" s="111" t="str">
         <f>CONCATENATE(Resultate!$G$12," ")</f>
-        <v xml:space="preserve">Loser Match #6 </v>
+        <v xml:space="preserve">Kämpfen / Maurer </v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -7536,7 +7552,7 @@
       </c>
       <c r="B21" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$15," ")</f>
-        <v xml:space="preserve">Winner Match #4 </v>
+        <v xml:space="preserve">Barinova / Koshcheeva </v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="25"/>
@@ -7555,7 +7571,7 @@
     <row r="22" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$5," : ",Resultate!$J$5,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="14"/>
@@ -7739,7 +7755,7 @@
       <c r="I32"/>
       <c r="J32" s="111" t="str">
         <f>CONCATENATE(Resultate!$G$11," ")</f>
-        <v xml:space="preserve">Loser Match #4 </v>
+        <v xml:space="preserve">Wiedemann / Büchelin </v>
       </c>
       <c r="K32"/>
     </row>
@@ -7750,7 +7766,7 @@
       </c>
       <c r="B33" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$16," ")</f>
-        <v xml:space="preserve">Winner Match #6 </v>
+        <v xml:space="preserve">Schwab / Schinnerl </v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="14"/>
@@ -7762,7 +7778,7 @@
     <row r="34" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$7," : ",Resultate!$J$7,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="10"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0992DE-A129-4668-8A55-29E3AA67F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1B3886-FA6E-4472-AA4C-AC148E8FE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9698" yWindow="2242" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7455" yWindow="1650" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2780,31 +2780,39 @@
         <f>IF(Anmeldung!$I$15=" / ",CONCATENATE("Seed #",Anmeldung!$A$15),Anmeldung!$I$15)</f>
         <v>Wälti / Brunschweiler</v>
       </c>
-      <c r="H6" s="67" t="str">
+      <c r="H6" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="67" t="str">
+      <c r="J6" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="86">
+        <v>21</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
+      <c r="N6" s="84">
+        <v>14</v>
+      </c>
+      <c r="O6" s="84">
+        <v>21</v>
+      </c>
       <c r="P6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="84"/>
+      <c r="Q6" s="84">
+        <v>15</v>
+      </c>
       <c r="R6" s="82"/>
       <c r="S6" s="5" t="s">
         <v>17</v>
@@ -3133,7 +3141,7 @@
       </c>
       <c r="E12" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Loser Match #",$A$6),IF($H$6&lt;$J$6,$E$6,$G$6))</f>
-        <v>Loser Match #5</v>
+        <v>Wälti / Brunschweiler</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>7</v>
@@ -3367,7 +3375,7 @@
       </c>
       <c r="E16" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Winner Match #",$A$6),IF($H$6&gt;$J$6,$E$6,$G$6))</f>
-        <v>Winner Match #5</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>7</v>
@@ -4801,13 +4809,13 @@
         <f>Resultate!G6</f>
         <v>Wälti / Brunschweiler</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6">
         <f>Resultate!H6</f>
-        <v/>
-      </c>
-      <c r="H6" t="str">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <f>Resultate!J6</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I6" s="137">
         <f>Resultate!K6</f>
@@ -4815,19 +4823,19 @@
       </c>
       <c r="J6">
         <f>Resultate!L6</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <f>Resultate!N6</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <f>Resultate!O6</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M6">
         <f>Resultate!Q6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <f>Resultate!R6</f>
@@ -4862,7 +4870,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S6" t="s">
         <v>104</v>
@@ -5230,7 +5238,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>in_progress</v>
       </c>
       <c r="S10" t="s">
         <v>104</v>
@@ -5347,7 +5355,7 @@
       </c>
       <c r="E12" t="str">
         <f>Resultate!E12</f>
-        <v>Loser Match #5</v>
+        <v>Wälti / Brunschweiler</v>
       </c>
       <c r="F12" t="str">
         <f>Resultate!G12</f>
@@ -5598,7 +5606,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court5</v>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S14" t="s">
         <v>104</v>
@@ -5715,7 +5723,7 @@
       </c>
       <c r="E16" t="str">
         <f>Resultate!E16</f>
-        <v>Winner Match #5</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="F16" t="str">
         <f>Resultate!G16</f>
@@ -5874,7 +5882,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court5</v>
+        <v>upcoming_2_court5</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
@@ -6150,7 +6158,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court5</v>
+        <v>upcoming_3_court5</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6426,7 +6434,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court5</v>
+        <v>upcoming_4_court5</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6702,7 +6710,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court5</v>
+        <v>upcoming_5_court5</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -7538,7 +7546,7 @@
       </c>
       <c r="J20" s="119" t="str">
         <f>CONCATENATE(Resultate!$E$12," ")</f>
-        <v xml:space="preserve">Loser Match #5 </v>
+        <v xml:space="preserve">Wälti / Brunschweiler </v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -7674,7 +7682,7 @@
       </c>
       <c r="B27" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$16," ")</f>
-        <v xml:space="preserve">Winner Match #5 </v>
+        <v xml:space="preserve">Amabile / Padilla </v>
       </c>
       <c r="C27"/>
       <c r="D27" s="30"/>
@@ -7684,7 +7692,7 @@
     <row r="28" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$6," : ",Resultate!$J$6,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1B3886-FA6E-4472-AA4C-AC148E8FE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E44D55C-0D9E-4427-9D48-83D712EBB132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1650" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8153" yWindow="1185" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E44D55C-0D9E-4427-9D48-83D712EBB132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB67C3-6BB8-4ADD-98B5-2CACB3873EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8153" yWindow="1185" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="338" yWindow="2880" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2510,36 +2510,36 @@
       </c>
       <c r="H2" s="67">
         <f t="shared" ref="H2:H15" si="0">IF(L2=N2,"",SUM(IF(L2&gt;N2,1,0),IF(O2&gt;Q2,1,0),IF(R2&lt;=T2,0,1)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="67">
         <f t="shared" ref="J2:J15" si="1">IF(L2=N2,"",SUM(IF(L2&lt;N2,1,0),IF(O2&lt;Q2,1,0),IF(R2&gt;=T2,0,1)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="93">
         <f t="shared" ref="K2:K15" si="2">SUM(V2-U2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="86">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="84">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="84">
+      <c r="O2" s="84">
         <v>21</v>
       </c>
-      <c r="O2" s="84">
+      <c r="P2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="84">
         <v>15</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="84">
-        <v>21</v>
       </c>
       <c r="R2" s="82"/>
       <c r="S2" s="5" t="s">
@@ -3014,14 +3014,14 @@
         <v>13</v>
       </c>
       <c r="C10" s="99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="132">
         <v>0.46875</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
-        <v>Billeter / Wüst</v>
+        <v>Bondi / Galeri</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -3074,7 +3074,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="132">
         <v>0.46875</v>
@@ -3248,14 +3248,14 @@
         <v>18</v>
       </c>
       <c r="C14" s="99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="83">
         <v>0.5</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
-        <v>Bondi / Galeri</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
@@ -3308,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="83">
         <v>0.5</v>
@@ -4320,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16A65A-1428-48F4-B8B6-2C57407FD7EB}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -4338,12 +4338,12 @@
     <col min="10" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4443,11 +4443,11 @@
       </c>
       <c r="G2">
         <f>Resultate!H2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <f>Resultate!J2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="137">
         <f>Resultate!K2</f>
@@ -4455,19 +4455,19 @@
       </c>
       <c r="J2">
         <f>Resultate!L2</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <f>Resultate!N2</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L2">
         <f>Resultate!O2</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M2">
         <f>Resultate!Q2</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N2">
         <f>Resultate!R2</f>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="C10">
         <f>Resultate!C10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="137">
         <f>Resultate!D10</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E10" t="str">
         <f>Resultate!E10</f>
-        <v>Billeter / Wüst</v>
+        <v>Bondi / Galeri</v>
       </c>
       <c r="F10" t="str">
         <f>Resultate!G10</f>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C11">
         <f>Resultate!C11</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="137">
         <f>Resultate!D11</f>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="137">
         <f>Resultate!D14</f>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
-        <v>Bondi / Galeri</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F14" t="str">
         <f>Resultate!G14</f>
@@ -5606,7 +5606,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S14" t="s">
         <v>104</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="137">
         <f>Resultate!D15</f>
@@ -5698,7 +5698,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="B3" s="108" t="str">
         <f>CONCATENATE(Resultate!$E$14," ")</f>
-        <v xml:space="preserve">Bondi / Galeri </v>
+        <v xml:space="preserve">Billeter / Wüst </v>
       </c>
       <c r="C3"/>
       <c r="D3" s="14"/>
@@ -7159,7 +7159,7 @@
     <row r="4" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$2," : ",Resultate!$J$2,")")</f>
-        <v>(0 : 2)</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4"/>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="J44" s="119" t="str">
         <f>CONCATENATE(Resultate!$E$10," ")</f>
-        <v xml:space="preserve">Billeter / Wüst </v>
+        <v xml:space="preserve">Bondi / Galeri </v>
       </c>
       <c r="K44" s="9"/>
     </row>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB67C3-6BB8-4ADD-98B5-2CACB3873EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A877788-193C-41DB-B0F1-8F4F43897E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="2880" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3090,31 +3090,39 @@
         <f>IF($H$5=$J$5,CONCATENATE("Loser Match #",$A$5),IF($H$5&lt;$J$5,$E$5,$G$5))</f>
         <v>Wiedemann / Büchelin</v>
       </c>
-      <c r="H11" s="67" t="str">
+      <c r="H11" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="67" t="str">
+      <c r="J11" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="86">
+        <v>21</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
+      <c r="N11" s="84">
+        <v>15</v>
+      </c>
+      <c r="O11" s="84">
+        <v>21</v>
+      </c>
       <c r="P11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="84"/>
+      <c r="Q11" s="84">
+        <v>15</v>
+      </c>
       <c r="R11" s="82"/>
       <c r="S11" s="5" t="s">
         <v>17</v>
@@ -3248,7 +3256,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="83">
         <v>0.5</v>
@@ -3308,7 +3316,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="83">
         <v>0.5</v>
@@ -3615,7 +3623,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
-        <v>Winner Match #10</v>
+        <v>Gränicher / Fluri</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>7</v>
@@ -5269,13 +5277,13 @@
         <f>Resultate!G11</f>
         <v>Wiedemann / Büchelin</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <f>Resultate!H11</f>
-        <v/>
-      </c>
-      <c r="H11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <f>Resultate!J11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I11" s="137">
         <f>Resultate!K11</f>
@@ -5283,19 +5291,19 @@
       </c>
       <c r="J11">
         <f>Resultate!L11</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <f>Resultate!N11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <f>Resultate!O11</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <f>Resultate!Q11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <f>Resultate!R11</f>
@@ -5330,7 +5338,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
@@ -5531,7 +5539,7 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="137">
         <f>Resultate!D14</f>
@@ -5606,7 +5614,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S14" t="s">
         <v>104</v>
@@ -5623,7 +5631,7 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="137">
         <f>Resultate!D15</f>
@@ -5698,7 +5706,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -5882,7 +5890,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court5</v>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
@@ -6091,7 +6099,7 @@
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
-        <v>Winner Match #10</v>
+        <v>Gränicher / Fluri</v>
       </c>
       <c r="F20" t="str">
         <f>Resultate!G20</f>
@@ -6158,7 +6166,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court5</v>
+        <v>upcoming_2_court5</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6434,7 +6442,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court5</v>
+        <v>upcoming_3_court5</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6710,7 +6718,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court5</v>
+        <v>upcoming_4_court5</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -7794,7 +7802,7 @@
       <c r="G34" s="115"/>
       <c r="I34" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$20," ")</f>
-        <v xml:space="preserve">Winner Match #10 </v>
+        <v xml:space="preserve">Gränicher / Fluri </v>
       </c>
       <c r="J34" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$11,"")</f>
@@ -7817,7 +7825,7 @@
       <c r="I35" s="118"/>
       <c r="J35" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$11," : ",Resultate!$H$11,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="K35"/>
     </row>
@@ -8369,15 +8377,15 @@
       </c>
       <c r="B15" s="2" t="str">
         <f>IF(Resultate!$H$11=Resultate!$J$11,"13. Rang",IF(Resultate!$H$11&lt;Resultate!$J$11,Resultate!$E$11,Resultate!$G$11))</f>
-        <v>13. Rang</v>
+        <v>Wiedemann / Büchelin</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>IF(B15="13. Rang","mal schauen",VLOOKUP(B15,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D15" s="44" t="str">
+        <v>Laura Wiedemann / Isabel Büchelin</v>
+      </c>
+      <c r="D15" s="44">
         <f>IF(B15="13. Rang","zu Hause",VLOOKUP(B15,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A877788-193C-41DB-B0F1-8F4F43897E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA831ECF-4B7D-4D69-AE83-B9A0820156BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3030,36 +3030,48 @@
         <f>IF($H$3=$J$3,CONCATENATE("Loser Match #",$A$3),IF($H$3&lt;$J$3,$E$3,$G$3))</f>
         <v>van Polanen / Berner</v>
       </c>
-      <c r="H10" s="69" t="str">
+      <c r="H10" s="69">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="69" t="str">
+      <c r="J10" s="69">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K10" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="102"/>
+      <c r="L10" s="102">
+        <v>21</v>
+      </c>
       <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
+      <c r="N10" s="103">
+        <v>17</v>
+      </c>
+      <c r="O10" s="103">
+        <v>15</v>
+      </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="99"/>
+      <c r="Q10" s="103">
+        <v>21</v>
+      </c>
+      <c r="R10" s="99">
+        <v>11</v>
+      </c>
       <c r="S10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="99"/>
+      <c r="T10" s="99">
+        <v>15</v>
+      </c>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
       <c r="W10"/>
@@ -3683,7 +3695,7 @@
       </c>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
-        <v>Winner Match #9</v>
+        <v>van Polanen / Berner</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
@@ -5185,13 +5197,13 @@
         <f>Resultate!G10</f>
         <v>van Polanen / Berner</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
         <f>Resultate!H10</f>
-        <v/>
-      </c>
-      <c r="H10" t="str">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <f>Resultate!J10</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I10" s="137">
         <f>Resultate!K10</f>
@@ -5199,27 +5211,27 @@
       </c>
       <c r="J10">
         <f>Resultate!L10</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <f>Resultate!N10</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <f>Resultate!O10</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <f>Resultate!Q10</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <f>Resultate!R10</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O10">
         <f>Resultate!T10</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P10" s="137">
         <f>Resultate!U10</f>
@@ -5246,7 +5258,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S10" t="s">
         <v>104</v>
@@ -5706,7 +5718,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -5982,7 +5994,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
@@ -6191,7 +6203,7 @@
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
-        <v>Winner Match #9</v>
+        <v>van Polanen / Berner</v>
       </c>
       <c r="F21" t="str">
         <f>Resultate!G21</f>
@@ -6258,7 +6270,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court6</v>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6534,7 +6546,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court6</v>
+        <v>upcoming_3_court6</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6810,7 +6822,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court6</v>
+        <v>upcoming_4_court6</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -7988,7 +8000,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$21," ")</f>
-        <v xml:space="preserve">Winner Match #9 </v>
+        <v xml:space="preserve">van Polanen / Berner </v>
       </c>
       <c r="J42" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$10,"")</f>
@@ -8015,7 +8027,7 @@
       <c r="I43" s="118"/>
       <c r="J43" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$10," : ",Resultate!$H$10,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="K43" s="9"/>
     </row>
@@ -8360,15 +8372,15 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>IF(Resultate!$H$10=Resultate!$J$10,"13. Rang",IF(Resultate!$H$10&lt;Resultate!$J$10,Resultate!$E$10,Resultate!$G$10))</f>
-        <v>13. Rang</v>
+        <v>Bondi / Galeri</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(B14="13. Rang","mal schauen",VLOOKUP(B14,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D14" s="44" t="str">
+        <v>Alice Bondi / Elisa Galeri</v>
+      </c>
+      <c r="D14" s="44">
         <f>IF(B14="13. Rang","zu Hause",VLOOKUP(B14,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA831ECF-4B7D-4D69-AE83-B9A0820156BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7016875E-C577-45E1-9600-4148A152BCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2415,8 +2415,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2916,36 +2916,48 @@
         <f>IF(Anmeldung!$I$11=" / ",CONCATENATE("Seed #",Anmeldung!$A$11),Anmeldung!$I$11)</f>
         <v>Sauser / Lauper</v>
       </c>
-      <c r="H8" s="67" t="str">
+      <c r="H8" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="67" t="str">
+      <c r="J8" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K8" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="86">
+        <v>15</v>
+      </c>
       <c r="M8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
+      <c r="N8" s="84">
+        <v>21</v>
+      </c>
+      <c r="O8" s="84">
+        <v>21</v>
+      </c>
       <c r="P8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="82"/>
+      <c r="Q8" s="84">
+        <v>15</v>
+      </c>
+      <c r="R8" s="82">
+        <v>8</v>
+      </c>
       <c r="S8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="82"/>
+      <c r="T8" s="82">
+        <v>15</v>
+      </c>
       <c r="U8" s="70"/>
       <c r="V8" s="70"/>
       <c r="W8"/>
@@ -3217,7 +3229,7 @@
       <c r="D13" s="83"/>
       <c r="E13" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Loser Match #",$A$8),IF($H$8&lt;$J$8,$E$8,$G$8))</f>
-        <v>Loser Match #7</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>7</v>
@@ -3455,7 +3467,7 @@
       </c>
       <c r="E17" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Winner Match #",$A$8),IF($H$8&gt;$J$8,$E$8,$G$8))</f>
-        <v>Winner Match #7</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
@@ -3515,7 +3527,7 @@
       </c>
       <c r="E18" s="7" t="str">
         <f>IF($H$13=$J$13,CONCATENATE("Winner Match #",$A$13),IF($H$13&gt;$J$13,$E$13,$G$13))</f>
-        <v>Loser Match #7</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
@@ -5013,13 +5025,13 @@
         <f>Resultate!G8</f>
         <v>Sauser / Lauper</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
         <f>Resultate!H8</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <f>Resultate!J8</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I8" s="137">
         <f>Resultate!K8</f>
@@ -5027,27 +5039,27 @@
       </c>
       <c r="J8">
         <f>Resultate!L8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <f>Resultate!N8</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <f>Resultate!O8</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M8">
         <f>Resultate!Q8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <f>Resultate!R8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O8">
         <f>Resultate!T8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P8" s="137">
         <f>Resultate!U8</f>
@@ -5074,7 +5086,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S8" t="s">
         <v>104</v>
@@ -5442,7 +5454,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S12" t="s">
         <v>104</v>
@@ -5467,7 +5479,7 @@
       </c>
       <c r="E13" t="str">
         <f>Resultate!E13</f>
-        <v>Loser Match #7</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F13" t="str">
         <f>Resultate!G13</f>
@@ -5810,7 +5822,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
@@ -5835,7 +5847,7 @@
       </c>
       <c r="E17" t="str">
         <f>Resultate!E17</f>
-        <v>Winner Match #7</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="F17" t="str">
         <f>Resultate!G17</f>
@@ -5927,7 +5939,7 @@
       </c>
       <c r="E18" t="str">
         <f>Resultate!E18</f>
-        <v>Loser Match #7</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F18" t="str">
         <f>Resultate!G18</f>
@@ -6086,7 +6098,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court4</v>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6362,7 +6374,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court4</v>
+        <v>upcoming_3_court4</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6638,7 +6650,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court4</v>
+        <v>upcoming_4_court4</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -7309,7 +7321,7 @@
       <c r="H10"/>
       <c r="I10" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$18," ")</f>
-        <v xml:space="preserve">Loser Match #7 </v>
+        <v xml:space="preserve">Garcia / Egli </v>
       </c>
       <c r="J10" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$13,"")</f>
@@ -7374,7 +7386,7 @@
       </c>
       <c r="J12" s="119" t="str">
         <f>CONCATENATE(Resultate!$E$13," ")</f>
-        <v xml:space="preserve">Loser Match #7 </v>
+        <v xml:space="preserve">Garcia / Egli </v>
       </c>
       <c r="K12"/>
       <c r="L12" s="9"/>
@@ -7928,7 +7940,7 @@
       </c>
       <c r="B39" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$17," ")</f>
-        <v xml:space="preserve">Winner Match #7 </v>
+        <v xml:space="preserve">Sauser / Lauper </v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="14"/>
@@ -7941,7 +7953,7 @@
     <row r="40" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$8," : ",Resultate!$J$8,")")</f>
-        <v>( : )</v>
+        <v>(1 : 2)</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="16"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7016875E-C577-45E1-9600-4148A152BCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA42C4D-2FAE-4306-9B6D-79CB43ADACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3296,36 +3296,48 @@
         <f>IF($H$3=$J$3,CONCATENATE("Winner Match #",$A$3),IF($H$3&gt;$J$3,$E$3,$G$3))</f>
         <v>Ribaut / Brunner</v>
       </c>
-      <c r="H14" s="69" t="str">
+      <c r="H14" s="69">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="69" t="str">
+      <c r="J14" s="69">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K14" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="102"/>
+      <c r="L14" s="102">
+        <v>21</v>
+      </c>
       <c r="M14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
+      <c r="N14" s="103">
+        <v>15</v>
+      </c>
+      <c r="O14" s="103">
+        <v>15</v>
+      </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="99"/>
+      <c r="Q14" s="103">
+        <v>21</v>
+      </c>
+      <c r="R14" s="99">
+        <v>15</v>
+      </c>
       <c r="S14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="99"/>
+      <c r="T14" s="99">
+        <v>8</v>
+      </c>
       <c r="U14" s="72"/>
       <c r="V14" s="72"/>
       <c r="W14"/>
@@ -3534,7 +3546,7 @@
       </c>
       <c r="G18" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Loser Match #",$A$14),IF($H$14&lt;$J$14,$E$14,$G$14))</f>
-        <v>Loser Match #13</v>
+        <v>Ribaut / Brunner</v>
       </c>
       <c r="H18" s="69" t="str">
         <f t="shared" si="4"/>
@@ -3767,7 +3779,7 @@
       </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
-        <v>Winner Match #13</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
@@ -4352,7 +4364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16A65A-1428-48F4-B8B6-2C57407FD7EB}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -5577,13 +5589,13 @@
         <f>Resultate!G14</f>
         <v>Ribaut / Brunner</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14">
         <f>Resultate!H14</f>
-        <v/>
-      </c>
-      <c r="H14" t="str">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <f>Resultate!J14</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I14" s="137">
         <f>Resultate!K14</f>
@@ -5591,27 +5603,27 @@
       </c>
       <c r="J14">
         <f>Resultate!L14</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K14">
         <f>Resultate!N14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14">
         <f>Resultate!O14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <f>Resultate!Q14</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <f>Resultate!R14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O14">
         <f>Resultate!T14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P14" s="137">
         <f>Resultate!U14</f>
@@ -5638,7 +5650,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S14" t="s">
         <v>104</v>
@@ -5914,7 +5926,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>in_progress</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
@@ -5943,7 +5955,7 @@
       </c>
       <c r="F18" t="str">
         <f>Resultate!G18</f>
-        <v>Loser Match #13</v>
+        <v>Ribaut / Brunner</v>
       </c>
       <c r="G18" t="str">
         <f>Resultate!H18</f>
@@ -6190,7 +6202,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court5</v>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6307,7 +6319,7 @@
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
-        <v>Winner Match #13</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F22" t="str">
         <f>Resultate!G22</f>
@@ -6466,7 +6478,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court5</v>
+        <v>upcoming_2_court5</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6742,7 +6754,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court5</v>
+        <v>upcoming_3_court5</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -7230,7 +7242,7 @@
       </c>
       <c r="C6" s="112" t="str">
         <f>CONCATENATE(Resultate!$E$22," ")</f>
-        <v xml:space="preserve">Winner Match #13 </v>
+        <v xml:space="preserve">Billeter / Wüst </v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7249,7 +7261,7 @@
       </c>
       <c r="B7" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$14," : ",Resultate!$J$14,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7"/>
@@ -7434,7 +7446,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="119" t="str">
         <f>CONCATENATE(Resultate!$G$18," ")</f>
-        <v xml:space="preserve">Loser Match #13 </v>
+        <v xml:space="preserve">Ribaut / Brunner </v>
       </c>
       <c r="J14"/>
       <c r="K14" s="9"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA42C4D-2FAE-4306-9B6D-79CB43ADACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E736A45-A2BB-4277-B7BC-E0274B18B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2997,16 +2997,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="104"/>
+      <c r="L9" s="104">
+        <v>0</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
+      <c r="N9" s="105">
+        <v>21</v>
+      </c>
+      <c r="O9" s="105">
+        <v>0</v>
+      </c>
       <c r="P9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="105"/>
+      <c r="Q9" s="105">
+        <v>21</v>
+      </c>
       <c r="R9" s="95"/>
       <c r="S9" s="6" t="s">
         <v>17</v>
@@ -3182,31 +3190,39 @@
         <f>IF($H$7=$J$7,CONCATENATE("Loser Match #",$A$7),IF($H$7&lt;$J$7,$E$7,$G$7))</f>
         <v>Kämpfen / Maurer</v>
       </c>
-      <c r="H12" s="67" t="str">
+      <c r="H12" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="67" t="str">
+      <c r="J12" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K12" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="86">
+        <v>15</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
+      <c r="N12" s="84">
+        <v>21</v>
+      </c>
+      <c r="O12" s="84">
+        <v>15</v>
+      </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="84"/>
+      <c r="Q12" s="84">
+        <v>21</v>
+      </c>
       <c r="R12" s="82"/>
       <c r="S12" s="5" t="s">
         <v>17</v>
@@ -3251,16 +3267,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="104">
+        <v>21</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
+      <c r="N13" s="105">
+        <v>0</v>
+      </c>
+      <c r="O13" s="105">
+        <v>21</v>
+      </c>
       <c r="P13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="105"/>
+      <c r="Q13" s="105">
+        <v>0</v>
+      </c>
       <c r="R13" s="95"/>
       <c r="S13" s="6" t="s">
         <v>17</v>
@@ -3368,36 +3392,48 @@
         <f>IF($H$5=$J$5,CONCATENATE("Winner Match #",$A$5),IF($H$5&gt;$J$5,$E$5,$G$5))</f>
         <v>Barinova / Koshcheeva</v>
       </c>
-      <c r="H15" s="67" t="str">
+      <c r="H15" s="67">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="67" t="str">
+      <c r="J15" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K15" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="86">
+        <v>15</v>
+      </c>
       <c r="M15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
+      <c r="N15" s="84">
+        <v>21</v>
+      </c>
+      <c r="O15" s="84">
+        <v>21</v>
+      </c>
       <c r="P15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="82"/>
+      <c r="Q15" s="84">
+        <v>15</v>
+      </c>
+      <c r="R15" s="82">
+        <v>15</v>
+      </c>
       <c r="S15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="82"/>
+      <c r="T15" s="82">
+        <v>8</v>
+      </c>
       <c r="U15" s="70"/>
       <c r="V15" s="70"/>
       <c r="W15"/>
@@ -3488,31 +3524,39 @@
         <f>IF($H$9=$J$9,CONCATENATE("Winner Match #",$A$9),IF($H$9&gt;$J$9,$E$9,$G$9))</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="H17" s="68" t="str">
+      <c r="H17" s="68">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="68" t="str">
+      <c r="J17" s="68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K17" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L17" s="104"/>
+      <c r="L17" s="104">
+        <v>15</v>
+      </c>
       <c r="M17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
+      <c r="N17" s="105">
+        <v>21</v>
+      </c>
+      <c r="O17" s="105">
+        <v>15</v>
+      </c>
       <c r="P17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="105"/>
+      <c r="Q17" s="105">
+        <v>21</v>
+      </c>
       <c r="R17" s="95"/>
       <c r="S17" s="6" t="s">
         <v>17</v>
@@ -3599,14 +3643,14 @@
       </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
-        <v>Winner Match #11</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>IF($H$15=$J$15,CONCATENATE("Loser Match #",$A$15),IF($H$15&lt;$J$15,$E$15,$G$15))</f>
-        <v>Loser Match #14</v>
+        <v>Barinova / Koshcheeva</v>
       </c>
       <c r="H19" s="67" t="str">
         <f t="shared" si="4"/>
@@ -3726,7 +3770,7 @@
       </c>
       <c r="G21" s="6" t="str">
         <f>IF($H$17=$J$17,CONCATENATE("Loser Match #",$A$17),IF($H$17&lt;$J$17,$E$17,$G$17))</f>
-        <v>Loser Match #16</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="H21" s="68" t="str">
         <f t="shared" si="4"/>
@@ -3786,7 +3830,7 @@
       </c>
       <c r="G22" s="7" t="str">
         <f>IF($H$15=$J$15,CONCATENATE("Winner Match #",$A$15),IF($H$15&gt;$J$15,$E$15,$G$15))</f>
-        <v>Winner Match #14</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="H22" s="69" t="str">
         <f t="shared" si="4"/>
@@ -3846,7 +3890,7 @@
       </c>
       <c r="G23" s="6" t="str">
         <f>IF($H$17=$J$17,CONCATENATE("Winner Match #",$A$17),IF($H$17&gt;$J$17,$E$17,$G$17))</f>
-        <v>Winner Match #16</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="H23" s="68" t="str">
         <f t="shared" si="4"/>
@@ -5147,7 +5191,7 @@
       </c>
       <c r="K9">
         <f>Resultate!N9</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <f>Resultate!O9</f>
@@ -5155,7 +5199,7 @@
       </c>
       <c r="M9">
         <f>Resultate!Q9</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <f>Resultate!R9</f>
@@ -5405,13 +5449,13 @@
         <f>Resultate!G12</f>
         <v>Kämpfen / Maurer</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <f>Resultate!H12</f>
-        <v/>
-      </c>
-      <c r="H12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f>Resultate!J12</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I12" s="137">
         <f>Resultate!K12</f>
@@ -5419,19 +5463,19 @@
       </c>
       <c r="J12">
         <f>Resultate!L12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <f>Resultate!N12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L12">
         <f>Resultate!O12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <f>Resultate!Q12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <f>Resultate!R12</f>
@@ -5466,7 +5510,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S12" t="s">
         <v>104</v>
@@ -5511,7 +5555,7 @@
       </c>
       <c r="J13">
         <f>Resultate!L13</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <f>Resultate!N13</f>
@@ -5519,7 +5563,7 @@
       </c>
       <c r="L13">
         <f>Resultate!O13</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M13">
         <f>Resultate!Q13</f>
@@ -5681,13 +5725,13 @@
         <f>Resultate!G15</f>
         <v>Barinova / Koshcheeva</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15">
         <f>Resultate!H15</f>
-        <v/>
-      </c>
-      <c r="H15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <f>Resultate!J15</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I15" s="137">
         <f>Resultate!K15</f>
@@ -5695,27 +5739,27 @@
       </c>
       <c r="J15">
         <f>Resultate!L15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <f>Resultate!N15</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L15">
         <f>Resultate!O15</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <f>Resultate!Q15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <f>Resultate!R15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O15">
         <f>Resultate!T15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P15" s="137">
         <f>Resultate!U15</f>
@@ -5742,7 +5786,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S15" t="s">
         <v>104</v>
@@ -5834,7 +5878,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
@@ -5865,13 +5909,13 @@
         <f>Resultate!G17</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17">
         <f>Resultate!H17</f>
-        <v/>
-      </c>
-      <c r="H17" t="str">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <f>Resultate!J17</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I17" s="137">
         <f>Resultate!K17</f>
@@ -5879,19 +5923,19 @@
       </c>
       <c r="J17">
         <f>Resultate!L17</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K17">
         <f>Resultate!N17</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <f>Resultate!O17</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <f>Resultate!Q17</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <f>Resultate!R17</f>
@@ -5926,7 +5970,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S17" t="s">
         <v>104</v>
@@ -6018,7 +6062,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
@@ -6043,11 +6087,11 @@
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
-        <v>Winner Match #11</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="F19" t="str">
         <f>Resultate!G19</f>
-        <v>Loser Match #14</v>
+        <v>Barinova / Koshcheeva</v>
       </c>
       <c r="G19" t="str">
         <f>Resultate!H19</f>
@@ -6110,7 +6154,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6202,7 +6246,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>in_progress</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6231,7 +6275,7 @@
       </c>
       <c r="F21" t="str">
         <f>Resultate!G21</f>
-        <v>Loser Match #16</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="G21" t="str">
         <f>Resultate!H21</f>
@@ -6294,7 +6338,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6323,7 +6367,7 @@
       </c>
       <c r="F22" t="str">
         <f>Resultate!G22</f>
-        <v>Winner Match #14</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="G22" t="str">
         <f>Resultate!H22</f>
@@ -6386,7 +6430,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court4</v>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6415,7 +6459,7 @@
       </c>
       <c r="F23" t="str">
         <f>Resultate!G23</f>
-        <v>Winner Match #16</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="G23" t="str">
         <f>Resultate!H23</f>
@@ -6478,7 +6522,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court5</v>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6570,7 +6614,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court6</v>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6662,7 +6706,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court4</v>
+        <v>upcoming_3_court4</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6754,7 +6798,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court5</v>
+        <v>upcoming_2_court5</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -6846,7 +6890,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court6</v>
+        <v>upcoming_3_court6</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -7528,13 +7572,13 @@
       </c>
       <c r="C18" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$22," ")</f>
-        <v xml:space="preserve">Winner Match #14 </v>
+        <v xml:space="preserve">Matic / Heim </v>
       </c>
       <c r="D18" s="14"/>
       <c r="H18" s="24"/>
       <c r="I18" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$19," ")</f>
-        <v xml:space="preserve">Winner Match #11 </v>
+        <v xml:space="preserve">Kämpfen / Maurer </v>
       </c>
       <c r="J18" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$12,"")</f>
@@ -7552,7 +7596,7 @@
       </c>
       <c r="B19" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$15," : ",Resultate!$J$15,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
@@ -7560,7 +7604,7 @@
       <c r="I19" s="118"/>
       <c r="J19" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$12," : ",Resultate!$H$12,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19"/>
@@ -7636,7 +7680,7 @@
       <c r="H22"/>
       <c r="I22" s="119" t="str">
         <f>CONCATENATE(Resultate!$G$19," ")</f>
-        <v xml:space="preserve">Loser Match #14 </v>
+        <v xml:space="preserve">Barinova / Koshcheeva </v>
       </c>
       <c r="J22"/>
       <c r="K22" s="9"/>
@@ -8015,7 +8059,7 @@
       </c>
       <c r="C42" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$23," ")</f>
-        <v xml:space="preserve">Winner Match #16 </v>
+        <v xml:space="preserve">Markl / Markl </v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -8040,7 +8084,7 @@
       </c>
       <c r="B43" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$17," : ",Resultate!$J$17,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43"/>
@@ -8109,7 +8153,7 @@
       <c r="H46"/>
       <c r="I46" s="119" t="str">
         <f>CONCATENATE(Resultate!$G$21," ")</f>
-        <v xml:space="preserve">Loser Match #16 </v>
+        <v xml:space="preserve">Sauser / Lauper </v>
       </c>
       <c r="J46"/>
       <c r="K46" s="9"/>
@@ -8430,15 +8474,15 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(Resultate!$H$12=Resultate!$J$12,"13. Rang",IF(Resultate!$H$12&lt;Resultate!$J$12,Resultate!$E$12,Resultate!$G$12))</f>
-        <v>13. Rang</v>
+        <v>Wälti / Brunschweiler</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(B16="13. Rang","mal schauen",VLOOKUP(B16,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D16" s="44" t="str">
+        <v>Nora Wälti / Alysha Joanna Brunschweiler</v>
+      </c>
+      <c r="D16" s="44">
         <f>IF(B16="13. Rang","zu Hause",VLOOKUP(B16,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E736A45-A2BB-4277-B7BC-E0274B18B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE23BB-F292-4BA4-82C1-A02E29A1489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3464,31 +3464,39 @@
         <f>IF($H$7=$J$7,CONCATENATE("Winner Match #",$A$7),IF($H$7&gt;$J$7,$E$7,$G$7))</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="H16" s="67" t="str">
+      <c r="H16" s="67">
         <f t="shared" ref="H16:H29" si="4">IF(L16=N16,"",SUM(IF(L16&gt;N16,1,0),IF(O16&gt;Q16,1,0),IF(R16&lt;=T16,0,1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="67" t="str">
+      <c r="J16" s="67">
         <f t="shared" ref="J16:J29" si="5">IF(L16=N16,"",SUM(IF(L16&lt;N16,1,0),IF(O16&lt;Q16,1,0),IF(R16&gt;=T16,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="93">
         <f t="shared" ref="K16:K29" si="6">SUM(V16-U16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="86">
+        <v>21</v>
+      </c>
       <c r="M16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
+      <c r="N16" s="84">
+        <v>15</v>
+      </c>
+      <c r="O16" s="84">
+        <v>21</v>
+      </c>
       <c r="P16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="84"/>
+      <c r="Q16" s="84">
+        <v>15</v>
+      </c>
       <c r="R16" s="82"/>
       <c r="S16" s="5" t="s">
         <v>17</v>
@@ -3592,31 +3600,39 @@
         <f>IF($H$14=$J$14,CONCATENATE("Loser Match #",$A$14),IF($H$14&lt;$J$14,$E$14,$G$14))</f>
         <v>Ribaut / Brunner</v>
       </c>
-      <c r="H18" s="69" t="str">
+      <c r="H18" s="69">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="69" t="str">
+      <c r="J18" s="69">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K18" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L18" s="102"/>
+      <c r="L18" s="102">
+        <v>21</v>
+      </c>
       <c r="M18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
+      <c r="N18" s="103">
+        <v>15</v>
+      </c>
+      <c r="O18" s="103">
+        <v>21</v>
+      </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="103"/>
+      <c r="Q18" s="103">
+        <v>15</v>
+      </c>
       <c r="R18" s="99"/>
       <c r="S18" s="7" t="s">
         <v>17</v>
@@ -3696,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="100">
         <v>0.5625</v>
@@ -3710,7 +3726,7 @@
       </c>
       <c r="G20" s="5" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Loser Match #",$A$16),IF($H$16&lt;$J$16,$E$16,$G$16))</f>
-        <v>Loser Match #15</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="H20" s="67" t="str">
         <f t="shared" si="4"/>
@@ -3756,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="100">
         <v>0.5625</v>
@@ -3883,7 +3899,7 @@
       </c>
       <c r="E23" s="6" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Winner Match #",$A$16),IF($H$16&gt;$J$16,$E$16,$G$16))</f>
-        <v>Winner Match #15</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
@@ -3943,7 +3959,7 @@
       </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
-        <v>Winner Match #17</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
@@ -5817,13 +5833,13 @@
         <f>Resultate!G16</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <f>Resultate!H16</f>
-        <v/>
-      </c>
-      <c r="H16" t="str">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <f>Resultate!J16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I16" s="137">
         <f>Resultate!K16</f>
@@ -5831,19 +5847,19 @@
       </c>
       <c r="J16">
         <f>Resultate!L16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K16">
         <f>Resultate!N16</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L16">
         <f>Resultate!O16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <f>Resultate!Q16</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <f>Resultate!R16</f>
@@ -5878,7 +5894,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S16" t="s">
         <v>104</v>
@@ -6001,13 +6017,13 @@
         <f>Resultate!G18</f>
         <v>Ribaut / Brunner</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18">
         <f>Resultate!H18</f>
-        <v/>
-      </c>
-      <c r="H18" t="str">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <f>Resultate!J18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I18" s="137">
         <f>Resultate!K18</f>
@@ -6015,19 +6031,19 @@
       </c>
       <c r="J18">
         <f>Resultate!L18</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K18">
         <f>Resultate!N18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L18">
         <f>Resultate!O18</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M18">
         <f>Resultate!Q18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <f>Resultate!R18</f>
@@ -6062,7 +6078,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S18" t="s">
         <v>104</v>
@@ -6154,7 +6170,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6171,7 +6187,7 @@
       </c>
       <c r="C20">
         <f>Resultate!C20</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="137">
         <f>Resultate!D20</f>
@@ -6183,7 +6199,7 @@
       </c>
       <c r="F20" t="str">
         <f>Resultate!G20</f>
-        <v>Loser Match #15</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="G20" t="str">
         <f>Resultate!H20</f>
@@ -6263,7 +6279,7 @@
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="137">
         <f>Resultate!D21</f>
@@ -6338,7 +6354,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6430,7 +6446,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6455,7 +6471,7 @@
       </c>
       <c r="E23" t="str">
         <f>Resultate!E23</f>
-        <v>Winner Match #15</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="F23" t="str">
         <f>Resultate!G23</f>
@@ -6547,7 +6563,7 @@
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
-        <v>Winner Match #17</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F24" t="str">
         <f>Resultate!G24</f>
@@ -6614,7 +6630,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6706,7 +6722,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court4</v>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6890,7 +6906,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court6</v>
+        <v>upcoming_2_court6</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -7434,7 +7450,7 @@
       </c>
       <c r="H12" s="111" t="str">
         <f>CONCATENATE(Resultate!$E$24," ")</f>
-        <v xml:space="preserve">Winner Match #17 </v>
+        <v xml:space="preserve">Garcia / Egli </v>
       </c>
       <c r="I12" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$18,"")</f>
@@ -7472,7 +7488,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$18," : ",Resultate!$J$18,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -7814,7 +7830,7 @@
       </c>
       <c r="C30" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$23," ")</f>
-        <v xml:space="preserve">Winner Match #15 </v>
+        <v xml:space="preserve">Amabile / Padilla </v>
       </c>
       <c r="D30"/>
       <c r="F30"/>
@@ -7830,7 +7846,7 @@
       </c>
       <c r="B31" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$16," : ",Resultate!$J$16,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31"/>
@@ -7983,7 +7999,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="119" t="str">
         <f>CONCATENATE(Resultate!$G$20," ")</f>
-        <v xml:space="preserve">Loser Match #15 </v>
+        <v xml:space="preserve">Schwab / Schinnerl </v>
       </c>
       <c r="J38"/>
       <c r="K38" s="9"/>
@@ -8372,15 +8388,15 @@
       </c>
       <c r="B10" s="2" t="str">
         <f>IF(Resultate!$H$18=Resultate!$J$18,"9. Rang",IF(Resultate!$H$18&lt;Resultate!$J$18,Resultate!$E$18,Resultate!$G$18))</f>
-        <v>9. Rang</v>
+        <v>Ribaut / Brunner</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(B10="9. Rang","mal schauen",VLOOKUP(B10,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D10" s="44" t="str">
+        <v>Gabriela Ribaut / Selina Brunner</v>
+      </c>
+      <c r="D10" s="44">
         <f>IF(B10="9. Rang","zu Hause",VLOOKUP(B10,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE23BB-F292-4BA4-82C1-A02E29A1489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2723E8-BA11-43C0-8816-7C5449938AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3788,31 +3788,39 @@
         <f>IF($H$17=$J$17,CONCATENATE("Loser Match #",$A$17),IF($H$17&lt;$J$17,$E$17,$G$17))</f>
         <v>Sauser / Lauper</v>
       </c>
-      <c r="H21" s="68" t="str">
+      <c r="H21" s="68">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="68" t="str">
+      <c r="J21" s="68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K21" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L21" s="104"/>
+      <c r="L21" s="104">
+        <v>15</v>
+      </c>
       <c r="M21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
+      <c r="N21" s="105">
+        <v>21</v>
+      </c>
+      <c r="O21" s="105">
+        <v>15</v>
+      </c>
       <c r="P21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="105"/>
+      <c r="Q21" s="105">
+        <v>21</v>
+      </c>
       <c r="R21" s="95"/>
       <c r="S21" s="6" t="s">
         <v>17</v>
@@ -3831,9 +3839,7 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="82">
-        <v>4</v>
-      </c>
+      <c r="C22" s="82"/>
       <c r="D22" s="96">
         <v>0.53125</v>
       </c>
@@ -3891,9 +3897,7 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="95">
-        <v>5</v>
-      </c>
+      <c r="C23" s="95"/>
       <c r="D23" s="96">
         <v>0.53125</v>
       </c>
@@ -3951,9 +3955,7 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="82">
-        <v>6</v>
-      </c>
+      <c r="C24" s="82"/>
       <c r="D24" s="96">
         <v>0.53125</v>
       </c>
@@ -4011,9 +4013,7 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="82">
-        <v>4</v>
-      </c>
+      <c r="C25" s="82"/>
       <c r="D25" s="100">
         <v>0.5625</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G25" s="6" t="str">
         <f>IF($H$21=$J$21,CONCATENATE("Winner Match #",$A$21),IF($H$21&gt;$J$21,$E$21,$G$21))</f>
-        <v>Winner Match #20</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="H25" s="68" t="str">
         <f t="shared" si="4"/>
@@ -4071,9 +4071,7 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="95">
-        <v>5</v>
-      </c>
+      <c r="C26" s="95"/>
       <c r="D26" s="100">
         <v>0.5625</v>
       </c>
@@ -4131,9 +4129,7 @@
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="95">
-        <v>6</v>
-      </c>
+      <c r="C27" s="95"/>
       <c r="D27" s="100">
         <v>0.5625</v>
       </c>
@@ -6293,13 +6289,13 @@
         <f>Resultate!G21</f>
         <v>Sauser / Lauper</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21">
         <f>Resultate!H21</f>
-        <v/>
-      </c>
-      <c r="H21" t="str">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f>Resultate!J21</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I21" s="137">
         <f>Resultate!K21</f>
@@ -6307,19 +6303,19 @@
       </c>
       <c r="J21">
         <f>Resultate!L21</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K21">
         <f>Resultate!N21</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <f>Resultate!O21</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M21">
         <f>Resultate!Q21</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <f>Resultate!R21</f>
@@ -6354,7 +6350,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S21" t="s">
         <v>104</v>
@@ -6371,7 +6367,7 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="137">
         <f>Resultate!D22</f>
@@ -6446,7 +6442,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v/>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6463,7 +6459,7 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="137">
         <f>Resultate!D23</f>
@@ -6538,7 +6534,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v/>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6555,7 +6551,7 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" s="137">
         <f>Resultate!D24</f>
@@ -6630,7 +6626,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v/>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6647,7 +6643,7 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="137">
         <f>Resultate!D25</f>
@@ -6659,7 +6655,7 @@
       </c>
       <c r="F25" t="str">
         <f>Resultate!G25</f>
-        <v>Winner Match #20</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="G25" t="str">
         <f>Resultate!H25</f>
@@ -6722,7 +6718,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v/>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6739,7 +6735,7 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="137">
         <f>Resultate!D26</f>
@@ -6814,7 +6810,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court5</v>
+        <v/>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -6831,7 +6827,7 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" s="137">
         <f>Resultate!D27</f>
@@ -6906,7 +6902,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court6</v>
+        <v/>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -8125,7 +8121,7 @@
       <c r="G44"/>
       <c r="H44" s="126" t="str">
         <f>CONCATENATE(Resultate!$G$25," ")</f>
-        <v xml:space="preserve">Winner Match #20 </v>
+        <v xml:space="preserve">Sauser / Lauper </v>
       </c>
       <c r="I44" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$21,"")</f>
@@ -8152,7 +8148,7 @@
       <c r="H45" s="26"/>
       <c r="I45" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$21," : ",Resultate!$J$21,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -8439,15 +8435,15 @@
       </c>
       <c r="B13" s="2" t="str">
         <f>IF(Resultate!$H$21=Resultate!$J$21,"9. Rang",IF(Resultate!$H$21&lt;Resultate!$J$21,Resultate!$E$21,Resultate!$G$21))</f>
-        <v>9. Rang</v>
+        <v>van Polanen / Berner</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(B13="9. Rang","mal schauen",VLOOKUP(B13,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D13" s="44" t="str">
+        <v>Lisa van Polanen / Olivia Berner</v>
+      </c>
+      <c r="D13" s="44">
         <f>IF(B13="9. Rang","zu Hause",VLOOKUP(B13,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2723E8-BA11-43C0-8816-7C5449938AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A332F-6BBB-4375-9271-2F0868101C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3668,36 +3668,48 @@
         <f>IF($H$15=$J$15,CONCATENATE("Loser Match #",$A$15),IF($H$15&lt;$J$15,$E$15,$G$15))</f>
         <v>Barinova / Koshcheeva</v>
       </c>
-      <c r="H19" s="67" t="str">
+      <c r="H19" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="67" t="str">
+      <c r="J19" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K19" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L19" s="86"/>
+      <c r="L19" s="86">
+        <v>21</v>
+      </c>
       <c r="M19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
+      <c r="N19" s="84">
+        <v>15</v>
+      </c>
+      <c r="O19" s="84">
+        <v>15</v>
+      </c>
       <c r="P19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="82"/>
+      <c r="Q19" s="84">
+        <v>21</v>
+      </c>
+      <c r="R19" s="82">
+        <v>15</v>
+      </c>
       <c r="S19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="82"/>
+      <c r="T19" s="82">
+        <v>8</v>
+      </c>
       <c r="U19" s="70"/>
       <c r="V19" s="70"/>
       <c r="W19"/>
@@ -3728,31 +3740,39 @@
         <f>IF($H$16=$J$16,CONCATENATE("Loser Match #",$A$16),IF($H$16&lt;$J$16,$E$16,$G$16))</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="H20" s="67" t="str">
+      <c r="H20" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="67" t="str">
+      <c r="J20" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K20" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="86"/>
+      <c r="L20" s="86">
+        <v>15</v>
+      </c>
       <c r="M20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
+      <c r="N20" s="84">
+        <v>21</v>
+      </c>
+      <c r="O20" s="84">
+        <v>15</v>
+      </c>
       <c r="P20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="84"/>
+      <c r="Q20" s="84">
+        <v>21</v>
+      </c>
       <c r="R20" s="82"/>
       <c r="S20" s="5" t="s">
         <v>17</v>
@@ -3839,9 +3859,11 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="82">
+        <v>5</v>
+      </c>
       <c r="D22" s="96">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
@@ -3897,9 +3919,11 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="95"/>
+      <c r="C23" s="95">
+        <v>6</v>
+      </c>
       <c r="D23" s="96">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Winner Match #",$A$16),IF($H$16&gt;$J$16,$E$16,$G$16))</f>
@@ -3955,9 +3979,11 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="82">
+        <v>4</v>
+      </c>
       <c r="D24" s="96">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
@@ -3968,7 +3994,7 @@
       </c>
       <c r="G24" s="7" t="str">
         <f>IF($H$19=$J$19,CONCATENATE("Winner Match #",$A$19),IF($H$19&gt;$J$19,$E$19,$G$19))</f>
-        <v>Winner Match #18</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="H24" s="69" t="str">
         <f t="shared" si="4"/>
@@ -4013,13 +4039,15 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="82">
+        <v>5</v>
+      </c>
       <c r="D25" s="100">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
-        <v>Winner Match #19</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>7</v>
@@ -4071,9 +4099,11 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="95"/>
+      <c r="C26" s="95">
+        <v>6</v>
+      </c>
       <c r="D26" s="100">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
@@ -4129,9 +4159,11 @@
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="95"/>
+      <c r="C27" s="95">
+        <v>4</v>
+      </c>
       <c r="D27" s="100">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF($H$25=$J$25,CONCATENATE("Winner Match #",$A$25),IF($H$25&gt;$J$25,$E$25,$G$25))</f>
@@ -4187,8 +4219,12 @@
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="99">
+        <v>3</v>
+      </c>
+      <c r="D28" s="100">
+        <v>0.65625</v>
+      </c>
       <c r="E28" s="7" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Winner Match #",$A$22),IF($H$22&gt;$J$22,$E$22,$G$22))</f>
         <v>Winner Match #21</v>
@@ -4243,8 +4279,12 @@
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="95">
+        <v>4</v>
+      </c>
+      <c r="D29" s="100">
+        <v>0.65625</v>
+      </c>
       <c r="E29" s="6" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Winner Match #",$A$23),IF($H$23&gt;$J$23,$E$23,$G$23))</f>
         <v>Winner Match #22</v>
@@ -4299,8 +4339,12 @@
       <c r="B30" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
+      <c r="C30" s="99">
+        <v>3</v>
+      </c>
+      <c r="D30" s="100">
+        <v>0.6875</v>
+      </c>
       <c r="E30" s="7" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Loser Match #",$A$28),IF($H$28&lt;$J$28,$E$28,$G$28))</f>
         <v>Loser Match #27</v>
@@ -4355,8 +4399,12 @@
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="95">
+        <v>4</v>
+      </c>
+      <c r="D31" s="100">
+        <v>0.6875</v>
+      </c>
       <c r="E31" s="6" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Winner Match #",$A$28),IF($H$28&gt;$J$28,$E$28,$G$28))</f>
         <v>Winner Match #27</v>
@@ -6105,13 +6153,13 @@
         <f>Resultate!G19</f>
         <v>Barinova / Koshcheeva</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <f>Resultate!H19</f>
-        <v/>
-      </c>
-      <c r="H19" t="str">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <f>Resultate!J19</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I19" s="137">
         <f>Resultate!K19</f>
@@ -6119,27 +6167,27 @@
       </c>
       <c r="J19">
         <f>Resultate!L19</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <f>Resultate!N19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L19">
         <f>Resultate!O19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M19">
         <f>Resultate!Q19</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <f>Resultate!R19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O19">
         <f>Resultate!T19</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P19" s="137">
         <f>Resultate!U19</f>
@@ -6166,7 +6214,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S19" t="s">
         <v>104</v>
@@ -6197,13 +6245,13 @@
         <f>Resultate!G20</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20">
         <f>Resultate!H20</f>
-        <v/>
-      </c>
-      <c r="H20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <f>Resultate!J20</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I20" s="137">
         <f>Resultate!K20</f>
@@ -6211,19 +6259,19 @@
       </c>
       <c r="J20">
         <f>Resultate!L20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K20">
         <f>Resultate!N20</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <f>Resultate!O20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M20">
         <f>Resultate!Q20</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <f>Resultate!R20</f>
@@ -6258,7 +6306,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S20" t="s">
         <v>104</v>
@@ -6367,11 +6415,11 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="137">
         <f>Resultate!D22</f>
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
@@ -6442,7 +6490,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6459,11 +6507,11 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D23" s="137">
         <f>Resultate!D23</f>
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="E23" t="str">
         <f>Resultate!E23</f>
@@ -6534,7 +6582,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6551,11 +6599,11 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="137">
         <f>Resultate!D24</f>
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
@@ -6563,7 +6611,7 @@
       </c>
       <c r="F24" t="str">
         <f>Resultate!G24</f>
-        <v>Winner Match #18</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="G24" t="str">
         <f>Resultate!H24</f>
@@ -6626,7 +6674,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6643,15 +6691,15 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="137">
         <f>Resultate!D25</f>
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
-        <v>Winner Match #19</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="F25" t="str">
         <f>Resultate!G25</f>
@@ -6718,7 +6766,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court5</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6735,11 +6783,11 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="137">
         <f>Resultate!D26</f>
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E26" t="str">
         <f>Resultate!E26</f>
@@ -6810,7 +6858,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court6</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -6827,11 +6875,11 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="137">
         <f>Resultate!D27</f>
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E27" t="str">
         <f>Resultate!E27</f>
@@ -6902,7 +6950,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -6919,11 +6967,11 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="137">
         <f>Resultate!D28</f>
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="E28" t="str">
         <f>Resultate!E28</f>
@@ -6994,7 +7042,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S28" t="s">
         <v>104</v>
@@ -7011,11 +7059,11 @@
       </c>
       <c r="C29">
         <f>Resultate!C29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="137">
         <f>Resultate!D29</f>
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="E29" t="str">
         <f>Resultate!E29</f>
@@ -7086,7 +7134,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court4</v>
       </c>
       <c r="S29" t="s">
         <v>104</v>
@@ -7103,11 +7151,11 @@
       </c>
       <c r="C30">
         <f>Resultate!C30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="137">
         <f>Resultate!D30</f>
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="E30" t="str">
         <f>Resultate!E30</f>
@@ -7178,7 +7226,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S30" t="s">
         <v>104</v>
@@ -7638,7 +7686,7 @@
       </c>
       <c r="H20" s="126" t="str">
         <f>CONCATENATE(Resultate!$G$24," ")</f>
-        <v xml:space="preserve">Winner Match #18 </v>
+        <v xml:space="preserve">Kämpfen / Maurer </v>
       </c>
       <c r="I20" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$19,"")</f>
@@ -7668,7 +7716,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$19," : ",Resultate!$J$19,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -7977,11 +8025,11 @@
       </c>
       <c r="H37" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$25," ")</f>
-        <v xml:space="preserve">Winner Match #19 </v>
+        <v xml:space="preserve">Schwab / Schinnerl </v>
       </c>
       <c r="I37" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$20," : ",Resultate!$J$20,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="K37"/>
     </row>
@@ -8401,15 +8449,15 @@
       </c>
       <c r="B11" s="2" t="str">
         <f>IF(Resultate!$H$19=Resultate!$J$19,"9. Rang",IF(Resultate!$H$19&lt;Resultate!$J$19,Resultate!$E$19,Resultate!$G$19))</f>
-        <v>9. Rang</v>
+        <v>Barinova / Koshcheeva</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(B11="9. Rang","mal schauen",VLOOKUP(B11,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D11" s="44" t="str">
+        <v>Olga Barinova / Alena Koshcheeva</v>
+      </c>
+      <c r="D11" s="44">
         <f>IF(B11="9. Rang","zu Hause",VLOOKUP(B11,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8418,15 +8466,15 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>IF(Resultate!$H$20=Resultate!$J$20,"9. Rang",IF(Resultate!$H$20&lt;Resultate!$J$20,Resultate!$E$20,Resultate!$G$20))</f>
-        <v>9. Rang</v>
+        <v>Gränicher / Fluri</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(B12="9. Rang","mal schauen",VLOOKUP(B12,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D12" s="44" t="str">
+        <v>Kaia Gränicher / Lena Fluri</v>
+      </c>
+      <c r="D12" s="44">
         <f>IF(B12="9. Rang","zu Hause",VLOOKUP(B12,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A332F-6BBB-4375-9271-2F0868101C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A0474-94DA-40B2-9EAD-B29A14D62BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3876,31 +3876,39 @@
         <f>IF($H$15=$J$15,CONCATENATE("Winner Match #",$A$15),IF($H$15&gt;$J$15,$E$15,$G$15))</f>
         <v>Matic / Heim</v>
       </c>
-      <c r="H22" s="69" t="str">
+      <c r="H22" s="69">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="69" t="str">
+      <c r="J22" s="69">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K22" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="102">
+        <v>21</v>
+      </c>
       <c r="M22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
+      <c r="N22" s="103">
+        <v>15</v>
+      </c>
+      <c r="O22" s="103">
+        <v>21</v>
+      </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="103"/>
+      <c r="Q22" s="103">
+        <v>15</v>
+      </c>
       <c r="R22" s="99"/>
       <c r="S22" s="7" t="s">
         <v>17</v>
@@ -4174,7 +4182,7 @@
       </c>
       <c r="G27" s="6" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Loser Match #",$A$22),IF($H$22&lt;$J$22,$E$22,$G$22))</f>
-        <v>Loser Match #21</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="H27" s="68" t="str">
         <f t="shared" si="4"/>
@@ -4227,7 +4235,7 @@
       </c>
       <c r="E28" s="7" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Winner Match #",$A$22),IF($H$22&gt;$J$22,$E$22,$G$22))</f>
-        <v>Winner Match #21</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>7</v>
@@ -6429,13 +6437,13 @@
         <f>Resultate!G22</f>
         <v>Matic / Heim</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22">
         <f>Resultate!H22</f>
-        <v/>
-      </c>
-      <c r="H22" t="str">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <f>Resultate!J22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I22" s="137">
         <f>Resultate!K22</f>
@@ -6443,19 +6451,19 @@
       </c>
       <c r="J22">
         <f>Resultate!L22</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K22">
         <f>Resultate!N22</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22">
         <f>Resultate!O22</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M22">
         <f>Resultate!Q22</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <f>Resultate!R22</f>
@@ -6490,7 +6498,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S22" t="s">
         <v>104</v>
@@ -6766,7 +6774,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court5</v>
+        <v>in_progress</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6887,7 +6895,7 @@
       </c>
       <c r="F27" t="str">
         <f>Resultate!G27</f>
-        <v>Loser Match #21</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="G27" t="str">
         <f>Resultate!H27</f>
@@ -6975,7 +6983,7 @@
       </c>
       <c r="E28" t="str">
         <f>Resultate!E28</f>
-        <v>Winner Match #21</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F28" t="str">
         <f>Resultate!G28</f>
@@ -7478,7 +7486,7 @@
       </c>
       <c r="D12" s="112" t="str">
         <f>CONCATENATE(Resultate!$E$28," ")</f>
-        <v xml:space="preserve">Winner Match #21 </v>
+        <v xml:space="preserve">Billeter / Wüst </v>
       </c>
       <c r="E12" s="20" t="str">
         <f>CONCATENATE("",Resultate!$A$28,"")</f>
@@ -7517,7 +7525,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$22," : ",Resultate!$J$22,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="120" t="str">
@@ -7906,7 +7914,7 @@
       <c r="D32" s="14"/>
       <c r="G32" s="111" t="str">
         <f>CONCATENATE(Resultate!$G$27," ")</f>
-        <v xml:space="preserve">Loser Match #21 </v>
+        <v xml:space="preserve">Matic / Heim </v>
       </c>
       <c r="I32"/>
       <c r="J32" s="111" t="str">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A0474-94DA-40B2-9EAD-B29A14D62BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33F80F-03C7-4B0B-907D-472AF9A87CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33F80F-03C7-4B0B-907D-472AF9A87CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ECBDD8-E70B-4AC5-87F2-DAEC428C040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ECBDD8-E70B-4AC5-87F2-DAEC428C040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C338D3-A719-41EC-9027-A05F684B7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4004,31 +4004,39 @@
         <f>IF($H$19=$J$19,CONCATENATE("Winner Match #",$A$19),IF($H$19&gt;$J$19,$E$19,$G$19))</f>
         <v>Kämpfen / Maurer</v>
       </c>
-      <c r="H24" s="69" t="str">
+      <c r="H24" s="69">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="69" t="str">
+      <c r="J24" s="69">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K24" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24" s="102"/>
+      <c r="L24" s="102">
+        <v>21</v>
+      </c>
       <c r="M24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
+      <c r="N24" s="103">
+        <v>15</v>
+      </c>
+      <c r="O24" s="103">
+        <v>21</v>
+      </c>
       <c r="P24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="103"/>
+      <c r="Q24" s="103">
+        <v>15</v>
+      </c>
       <c r="R24" s="99"/>
       <c r="S24" s="7" t="s">
         <v>17</v>
@@ -4115,7 +4123,7 @@
       </c>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
-        <v>Winner Match #23</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>7</v>
@@ -6621,13 +6629,13 @@
         <f>Resultate!G24</f>
         <v>Kämpfen / Maurer</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24">
         <f>Resultate!H24</f>
-        <v/>
-      </c>
-      <c r="H24" t="str">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <f>Resultate!J24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I24" s="137">
         <f>Resultate!K24</f>
@@ -6635,19 +6643,19 @@
       </c>
       <c r="J24">
         <f>Resultate!L24</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <f>Resultate!N24</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L24">
         <f>Resultate!O24</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <f>Resultate!Q24</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <f>Resultate!R24</f>
@@ -6682,7 +6690,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S24" t="s">
         <v>104</v>
@@ -6799,7 +6807,7 @@
       </c>
       <c r="E26" t="str">
         <f>Resultate!E26</f>
-        <v>Winner Match #23</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="F26" t="str">
         <f>Resultate!G26</f>
@@ -6958,7 +6966,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -7142,7 +7150,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court4</v>
+        <v>upcoming_1_court4</v>
       </c>
       <c r="S29" t="s">
         <v>104</v>
@@ -7596,7 +7604,7 @@
       <c r="D16" s="14"/>
       <c r="G16" s="121" t="str">
         <f>CONCATENATE(Resultate!$E$26," ")</f>
-        <v xml:space="preserve">Winner Match #23 </v>
+        <v xml:space="preserve">Garcia / Egli </v>
       </c>
       <c r="H16" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$24,"")</f>
@@ -7623,7 +7631,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$24," : ",Resultate!$J$24,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="I17"/>
       <c r="J17" s="114"/>
@@ -8406,15 +8414,15 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>IF(Resultate!$H$24=Resultate!$J$24,"7. Rang",IF(Resultate!$H$24&lt;Resultate!$J$24,Resultate!$E$24,Resultate!$G$24))</f>
-        <v>7. Rang</v>
+        <v>Kämpfen / Maurer</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(B8="7. Rang","mal schauen",VLOOKUP(B8,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D8" s="44" t="str">
+        <v>Eva Kämpfen / Chiara Maurer</v>
+      </c>
+      <c r="D8" s="44">
         <f>IF(B8="7. Rang","zu Hause",VLOOKUP(B8,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C338D3-A719-41EC-9027-A05F684B7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE0BC7-7873-4840-A319-8131EAB84A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3944,31 +3944,39 @@
         <f>IF($H$17=$J$17,CONCATENATE("Winner Match #",$A$17),IF($H$17&gt;$J$17,$E$17,$G$17))</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="H23" s="68" t="str">
+      <c r="H23" s="68">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="68" t="str">
+      <c r="J23" s="68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K23" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L23" s="104"/>
+      <c r="L23" s="104">
+        <v>21</v>
+      </c>
       <c r="M23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
+      <c r="N23" s="105">
+        <v>15</v>
+      </c>
+      <c r="O23" s="105">
+        <v>21</v>
+      </c>
       <c r="P23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="105"/>
+      <c r="Q23" s="105">
+        <v>15</v>
+      </c>
       <c r="R23" s="95"/>
       <c r="S23" s="6" t="s">
         <v>17</v>
@@ -4130,7 +4138,7 @@
       </c>
       <c r="G26" s="7" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Loser Match #",$A$23),IF($H$23&lt;$J$23,$E$23,$G$23))</f>
-        <v>Loser Match #22</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="H26" s="69" t="str">
         <f t="shared" si="4"/>
@@ -4303,7 +4311,7 @@
       </c>
       <c r="E29" s="6" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Winner Match #",$A$23),IF($H$23&gt;$J$23,$E$23,$G$23))</f>
-        <v>Winner Match #22</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>7</v>
@@ -6537,13 +6545,13 @@
         <f>Resultate!G23</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23">
         <f>Resultate!H23</f>
-        <v/>
-      </c>
-      <c r="H23" t="str">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <f>Resultate!J23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I23" s="137">
         <f>Resultate!K23</f>
@@ -6551,19 +6559,19 @@
       </c>
       <c r="J23">
         <f>Resultate!L23</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K23">
         <f>Resultate!N23</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L23">
         <f>Resultate!O23</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M23">
         <f>Resultate!Q23</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <f>Resultate!R23</f>
@@ -6598,7 +6606,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S23" t="s">
         <v>104</v>
@@ -6811,7 +6819,7 @@
       </c>
       <c r="F26" t="str">
         <f>Resultate!G26</f>
-        <v>Loser Match #22</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="G26" t="str">
         <f>Resultate!H26</f>
@@ -6874,7 +6882,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court6</v>
+        <v>in_progress</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -7083,7 +7091,7 @@
       </c>
       <c r="E29" t="str">
         <f>Resultate!E29</f>
-        <v>Winner Match #22</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="F29" t="str">
         <f>Resultate!G29</f>
@@ -7405,7 +7413,7 @@
       <c r="F8"/>
       <c r="G8" s="111" t="str">
         <f>CONCATENATE(Resultate!$G$26," ")</f>
-        <v xml:space="preserve">Loser Match #22 </v>
+        <v xml:space="preserve">Markl / Markl </v>
       </c>
       <c r="I8"/>
       <c r="J8" s="111" t="str">
@@ -7994,7 +8002,7 @@
       </c>
       <c r="D36" s="130" t="str">
         <f>CONCATENATE(Resultate!$E$29," ")</f>
-        <v xml:space="preserve">Winner Match #22 </v>
+        <v xml:space="preserve">Amabile / Padilla </v>
       </c>
       <c r="E36" s="131" t="str">
         <f>CONCATENATE("",Resultate!$A$29,"")</f>
@@ -8027,7 +8035,7 @@
       <c r="B37" s="14"/>
       <c r="C37" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$23," : ",Resultate!$J$23,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="36" t="str">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE0BC7-7873-4840-A319-8131EAB84A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59366DA5-5DFE-400E-83CD-8E2CA5FFBACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4080,31 +4080,39 @@
         <f>IF($H$21=$J$21,CONCATENATE("Winner Match #",$A$21),IF($H$21&gt;$J$21,$E$21,$G$21))</f>
         <v>Sauser / Lauper</v>
       </c>
-      <c r="H25" s="68" t="str">
+      <c r="H25" s="68">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="68" t="str">
+      <c r="J25" s="68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L25" s="104"/>
+      <c r="L25" s="104">
+        <v>21</v>
+      </c>
       <c r="M25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
+      <c r="N25" s="105">
+        <v>15</v>
+      </c>
+      <c r="O25" s="105">
+        <v>21</v>
+      </c>
       <c r="P25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="105"/>
+      <c r="Q25" s="105">
+        <v>15</v>
+      </c>
       <c r="R25" s="95"/>
       <c r="S25" s="6" t="s">
         <v>17</v>
@@ -4191,7 +4199,7 @@
       </c>
       <c r="E27" s="6" t="str">
         <f>IF($H$25=$J$25,CONCATENATE("Winner Match #",$A$25),IF($H$25&gt;$J$25,$E$25,$G$25))</f>
-        <v>Winner Match #24</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
@@ -6729,13 +6737,13 @@
         <f>Resultate!G25</f>
         <v>Sauser / Lauper</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25">
         <f>Resultate!H25</f>
-        <v/>
-      </c>
-      <c r="H25" t="str">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <f>Resultate!J25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I25" s="137">
         <f>Resultate!K25</f>
@@ -6743,19 +6751,19 @@
       </c>
       <c r="J25">
         <f>Resultate!L25</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K25">
         <f>Resultate!N25</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25">
         <f>Resultate!O25</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M25">
         <f>Resultate!Q25</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <f>Resultate!R25</f>
@@ -6790,7 +6798,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S25" t="s">
         <v>104</v>
@@ -6907,7 +6915,7 @@
       </c>
       <c r="E27" t="str">
         <f>Resultate!E27</f>
-        <v>Winner Match #24</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="F27" t="str">
         <f>Resultate!G27</f>
@@ -8102,7 +8110,7 @@
       <c r="F40"/>
       <c r="G40" s="121" t="str">
         <f>CONCATENATE(Resultate!$E$27," ")</f>
-        <v xml:space="preserve">Winner Match #24 </v>
+        <v xml:space="preserve">Schwab / Schinnerl </v>
       </c>
       <c r="H40" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$25,"")</f>
@@ -8129,7 +8137,7 @@
       <c r="G41" s="26"/>
       <c r="H41" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$25," : ",Resultate!$J$25,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="I41"/>
       <c r="J41" s="19"/>
@@ -8439,15 +8447,15 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>IF(Resultate!$H$25=Resultate!$J$25,"7. Rang",IF(Resultate!$H$25&lt;Resultate!$J$25,Resultate!$E$25,Resultate!$G$25))</f>
-        <v>7. Rang</v>
+        <v>Sauser / Lauper</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>IF(B9="7. Rang","mal schauen",VLOOKUP(B9,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D9" s="44" t="str">
+        <v>Elena Sauser / Livia Lauper</v>
+      </c>
+      <c r="D9" s="44">
         <f>IF(B9="7. Rang","zu Hause",VLOOKUP(B9,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59366DA5-5DFE-400E-83CD-8E2CA5FFBACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B017C9-A3BB-43FB-828D-F73776656D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4148,31 +4148,39 @@
         <f>IF($H$23=$J$23,CONCATENATE("Loser Match #",$A$23),IF($H$23&lt;$J$23,$E$23,$G$23))</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="H26" s="69" t="str">
+      <c r="H26" s="69">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="69" t="str">
+      <c r="J26" s="69">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K26" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L26" s="102"/>
+      <c r="L26" s="102">
+        <v>15</v>
+      </c>
       <c r="M26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
+      <c r="N26" s="103">
+        <v>21</v>
+      </c>
+      <c r="O26" s="103">
+        <v>15</v>
+      </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="103"/>
+      <c r="Q26" s="103">
+        <v>21</v>
+      </c>
       <c r="R26" s="99"/>
       <c r="S26" s="7" t="s">
         <v>17</v>
@@ -4266,7 +4274,7 @@
       </c>
       <c r="G28" s="7" t="str">
         <f>IF($H$26=$J$26,CONCATENATE("Winner Match #",$A$26),IF($H$26&gt;$J$26,$E$26,$G$26))</f>
-        <v>Winner Match #25</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="H28" s="69" t="str">
         <f t="shared" si="4"/>
@@ -6829,13 +6837,13 @@
         <f>Resultate!G26</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26">
         <f>Resultate!H26</f>
-        <v/>
-      </c>
-      <c r="H26" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f>Resultate!J26</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I26" s="137">
         <f>Resultate!K26</f>
@@ -6843,19 +6851,19 @@
       </c>
       <c r="J26">
         <f>Resultate!L26</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K26">
         <f>Resultate!N26</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L26">
         <f>Resultate!O26</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M26">
         <f>Resultate!Q26</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <f>Resultate!R26</f>
@@ -6890,7 +6898,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S26" t="s">
         <v>104</v>
@@ -7011,7 +7019,7 @@
       </c>
       <c r="F28" t="str">
         <f>Resultate!G28</f>
-        <v>Winner Match #25</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="G28" t="str">
         <f>Resultate!H28</f>
@@ -7518,7 +7526,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f>CONCATENATE(Resultate!$G$28," ")</f>
-        <v xml:space="preserve">Winner Match #25 </v>
+        <v xml:space="preserve">Markl / Markl </v>
       </c>
       <c r="G12" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$26,"")</f>
@@ -7559,7 +7567,7 @@
       <c r="F13" s="26"/>
       <c r="G13" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$26," : ",Resultate!$H$26,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="23" t="str">
@@ -8396,15 +8404,15 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>IF(Resultate!$H$26=Resultate!$J$26,"5. Rang",IF(Resultate!$H$26&lt;Resultate!$J$26,Resultate!$E$26,Resultate!$G$26))</f>
-        <v>5. Rang</v>
+        <v>Garcia / Egli</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>IF(B6="5. Rang","mal schauen",VLOOKUP(B6,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D6" s="44" t="str">
+        <v>Estefania Garcia / Nadja Egli</v>
+      </c>
+      <c r="D6" s="44">
         <f>IF(B6="5. Rang","zu Hause",VLOOKUP(B6,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B017C9-A3BB-43FB-828D-F73776656D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FB2D3-4BCC-4D8E-A130-54EEC292B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4216,31 +4216,39 @@
         <f>IF($H$22=$J$22,CONCATENATE("Loser Match #",$A$22),IF($H$22&lt;$J$22,$E$22,$G$22))</f>
         <v>Matic / Heim</v>
       </c>
-      <c r="H27" s="68" t="str">
+      <c r="H27" s="68">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="68" t="str">
+      <c r="J27" s="68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L27" s="104"/>
+      <c r="L27" s="104">
+        <v>21</v>
+      </c>
       <c r="M27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
+      <c r="N27" s="105">
+        <v>15</v>
+      </c>
+      <c r="O27" s="105">
+        <v>21</v>
+      </c>
       <c r="P27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="105"/>
+      <c r="Q27" s="105">
+        <v>15</v>
+      </c>
       <c r="R27" s="95"/>
       <c r="S27" s="6" t="s">
         <v>17</v>
@@ -4260,7 +4268,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="100">
         <v>0.65625</v>
@@ -4334,7 +4342,7 @@
       </c>
       <c r="G29" s="6" t="str">
         <f>IF($H$27=$J$27,CONCATENATE("Winner Match #",$A$27),IF($H$27&gt;$J$27,$E$27,$G$27))</f>
-        <v>Winner Match #26</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="H29" s="68" t="str">
         <f t="shared" si="4"/>
@@ -4380,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="100">
         <v>0.6875</v>
@@ -6929,13 +6937,13 @@
         <f>Resultate!G27</f>
         <v>Matic / Heim</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27">
         <f>Resultate!H27</f>
-        <v/>
-      </c>
-      <c r="H27" t="str">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <f>Resultate!J27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I27" s="137">
         <f>Resultate!K27</f>
@@ -6943,19 +6951,19 @@
       </c>
       <c r="J27">
         <f>Resultate!L27</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K27">
         <f>Resultate!N27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L27">
         <f>Resultate!O27</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M27">
         <f>Resultate!Q27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <f>Resultate!R27</f>
@@ -6990,7 +6998,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S27" t="s">
         <v>104</v>
@@ -7007,7 +7015,7 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="137">
         <f>Resultate!D28</f>
@@ -7111,7 +7119,7 @@
       </c>
       <c r="F29" t="str">
         <f>Resultate!G29</f>
-        <v>Winner Match #26</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="G29" t="str">
         <f>Resultate!H29</f>
@@ -7174,7 +7182,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court4</v>
+        <v>in_progress</v>
       </c>
       <c r="S29" t="s">
         <v>104</v>
@@ -7191,7 +7199,7 @@
       </c>
       <c r="C30">
         <f>Resultate!C30</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="137">
         <f>Resultate!D30</f>
@@ -7266,7 +7274,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S30" t="s">
         <v>104</v>
@@ -8026,7 +8034,7 @@
       </c>
       <c r="F36" s="14" t="str">
         <f>CONCATENATE(Resultate!$G$29," ")</f>
-        <v xml:space="preserve">Winner Match #26 </v>
+        <v xml:space="preserve">Schwab / Schinnerl </v>
       </c>
       <c r="G36" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$27,"")</f>
@@ -8061,7 +8069,7 @@
       <c r="F37" s="26"/>
       <c r="G37" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$27," : ",Resultate!$H$27,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="H37" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$25," ")</f>
@@ -8421,15 +8429,15 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>IF(Resultate!$H$27=Resultate!$J$27,"5. Rang",IF(Resultate!$H$27&lt;Resultate!$J$27,Resultate!$E$27,Resultate!$G$27))</f>
-        <v>5. Rang</v>
+        <v>Matic / Heim</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(B7="5. Rang","mal schauen",VLOOKUP(B7,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D7" s="44" t="str">
+        <v>Tara Matic / Jana Heim</v>
+      </c>
+      <c r="D7" s="44">
         <f>IF(B7="5. Rang","zu Hause",VLOOKUP(B7,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FB2D3-4BCC-4D8E-A130-54EEC292B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA8DF8A-A555-41C2-8D62-F2B031B35C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4284,31 +4284,39 @@
         <f>IF($H$26=$J$26,CONCATENATE("Winner Match #",$A$26),IF($H$26&gt;$J$26,$E$26,$G$26))</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="H28" s="69" t="str">
+      <c r="H28" s="69">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="69" t="str">
+      <c r="J28" s="69">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L28" s="102"/>
+      <c r="L28" s="102">
+        <v>21</v>
+      </c>
       <c r="M28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
+      <c r="N28" s="103">
+        <v>15</v>
+      </c>
+      <c r="O28" s="103">
+        <v>21</v>
+      </c>
       <c r="P28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="103"/>
+      <c r="Q28" s="103">
+        <v>15</v>
+      </c>
       <c r="R28" s="99"/>
       <c r="S28" s="7" t="s">
         <v>17</v>
@@ -4395,7 +4403,7 @@
       </c>
       <c r="E30" s="7" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Loser Match #",$A$28),IF($H$28&lt;$J$28,$E$28,$G$28))</f>
-        <v>Loser Match #27</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>7</v>
@@ -4455,7 +4463,7 @@
       </c>
       <c r="E31" s="6" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Winner Match #",$A$28),IF($H$28&gt;$J$28,$E$28,$G$28))</f>
-        <v>Winner Match #27</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>7</v>
@@ -7029,13 +7037,13 @@
         <f>Resultate!G28</f>
         <v>Markl / Markl</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28">
         <f>Resultate!H28</f>
-        <v/>
-      </c>
-      <c r="H28" t="str">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <f>Resultate!J28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I28" s="137">
         <f>Resultate!K28</f>
@@ -7043,19 +7051,19 @@
       </c>
       <c r="J28">
         <f>Resultate!L28</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K28">
         <f>Resultate!N28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L28">
         <f>Resultate!O28</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M28">
         <f>Resultate!Q28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <f>Resultate!R28</f>
@@ -7090,7 +7098,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S28" t="s">
         <v>104</v>
@@ -7207,7 +7215,7 @@
       </c>
       <c r="E30" t="str">
         <f>Resultate!E30</f>
-        <v>Loser Match #27</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="F30" t="str">
         <f>Resultate!G30</f>
@@ -7274,7 +7282,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S30" t="s">
         <v>104</v>
@@ -7570,7 +7578,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="120" t="str">
         <f>CONCATENATE("(",Resultate!$H$28," : ",Resultate!$J$28,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="23" t="str">
@@ -7725,12 +7733,12 @@
       <c r="C20"/>
       <c r="D20" s="124" t="str">
         <f>CONCATENATE(Resultate!$E$31," ")</f>
-        <v xml:space="preserve">Winner Match #27 </v>
+        <v xml:space="preserve">Billeter / Wüst </v>
       </c>
       <c r="E20" s="125"/>
       <c r="F20" s="124" t="str">
         <f>CONCATENATE(Resultate!$E$30," ")</f>
-        <v xml:space="preserve">Loser Match #27 </v>
+        <v xml:space="preserve">Markl / Markl </v>
       </c>
       <c r="H20" s="126" t="str">
         <f>CONCATENATE(Resultate!$G$24," ")</f>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA8DF8A-A555-41C2-8D62-F2B031B35C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F4B0D-41C9-442E-A965-CE746ACF8E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4352,31 +4352,39 @@
         <f>IF($H$27=$J$27,CONCATENATE("Winner Match #",$A$27),IF($H$27&gt;$J$27,$E$27,$G$27))</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="H29" s="68" t="str">
+      <c r="H29" s="68">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="68" t="str">
+      <c r="J29" s="68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K29" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L29" s="104"/>
+      <c r="L29" s="104">
+        <v>21</v>
+      </c>
       <c r="M29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
+      <c r="N29" s="105">
+        <v>15</v>
+      </c>
+      <c r="O29" s="105">
+        <v>21</v>
+      </c>
       <c r="P29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="105"/>
+      <c r="Q29" s="105">
+        <v>15</v>
+      </c>
       <c r="R29" s="95"/>
       <c r="S29" s="6" t="s">
         <v>17</v>
@@ -4410,7 +4418,7 @@
       </c>
       <c r="G30" s="7" t="str">
         <f>IF($H$29=$J$29,CONCATENATE("Loser Match #",$A$29),IF($H$29&lt;$J$29,$E$29,$G$29))</f>
-        <v>Loser Match #28</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="H30" s="69" t="str">
         <f>IF(L30=N30,"",SUM(IF(L30&gt;N30,1,0),IF(O30&gt;Q30,1,0),IF(R30&lt;=T30,0,1)))</f>
@@ -4470,7 +4478,7 @@
       </c>
       <c r="G31" s="6" t="str">
         <f>IF($H$29=$J$29,CONCATENATE("Winner Match #",$A$29),IF($H$29&gt;$J$29,$E$29,$G$29))</f>
-        <v>Winner Match #28</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="H31" s="68" t="str">
         <f>IF(L31=N31,"",SUM(IF(L31&gt;N31,1,0),IF(O31&gt;Q31,1,0),IF(R31&lt;=T31,0,1)))</f>
@@ -7129,13 +7137,13 @@
         <f>Resultate!G29</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29">
         <f>Resultate!H29</f>
-        <v/>
-      </c>
-      <c r="H29" t="str">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <f>Resultate!J29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I29" s="137">
         <f>Resultate!K29</f>
@@ -7143,19 +7151,19 @@
       </c>
       <c r="J29">
         <f>Resultate!L29</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K29">
         <f>Resultate!N29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L29">
         <f>Resultate!O29</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M29">
         <f>Resultate!Q29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <f>Resultate!R29</f>
@@ -7190,7 +7198,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S29" t="s">
         <v>104</v>
@@ -7219,7 +7227,7 @@
       </c>
       <c r="F30" t="str">
         <f>Resultate!G30</f>
-        <v>Loser Match #28</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="G30" t="str">
         <f>Resultate!H30</f>
@@ -7902,11 +7910,11 @@
       <c r="C28"/>
       <c r="D28" s="127" t="str">
         <f>CONCATENATE(Resultate!$G$31," ")</f>
-        <v xml:space="preserve">Winner Match #28 </v>
+        <v xml:space="preserve">Amabile / Padilla </v>
       </c>
       <c r="F28" s="128" t="str">
         <f>CONCATENATE(Resultate!$G$30," ")</f>
-        <v xml:space="preserve">Loser Match #28 </v>
+        <v xml:space="preserve">Schwab / Schinnerl </v>
       </c>
       <c r="H28"/>
       <c r="J28"/>
@@ -8072,7 +8080,7 @@
       <c r="D37" s="22"/>
       <c r="E37" s="36" t="str">
         <f>CONCATENATE("(",Resultate!$H$29," : ",Resultate!$J$29,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="23" t="str">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F4B0D-41C9-442E-A965-CE746ACF8E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F2A56-7B54-454A-A3ED-0FC3B35601FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4404,7 +4404,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="100">
         <v>0.6875</v>
@@ -4464,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="100">
         <v>0.6875</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C30">
         <f>Resultate!C30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="137">
         <f>Resultate!D30</f>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F2A56-7B54-454A-A3ED-0FC3B35601FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8A3471-F39C-493D-B8B4-5E4835EDC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="105">
   <si>
     <t>Seed</t>
   </si>
@@ -2415,7 +2415,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4530,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16A65A-1428-48F4-B8B6-2C57407FD7EB}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7293,6 +7293,98 @@
         <v>in_progress</v>
       </c>
       <c r="S30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f>Resultate!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="136" t="str">
+        <f>Resultate!B31</f>
+        <v>F</v>
+      </c>
+      <c r="C31">
+        <f>Resultate!C31</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="137">
+        <f>Resultate!D31</f>
+        <v>0.6875</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Resultate!E31</f>
+        <v>Billeter / Wüst</v>
+      </c>
+      <c r="F31" t="str">
+        <f>Resultate!G31</f>
+        <v>Amabile / Padilla</v>
+      </c>
+      <c r="G31" t="str">
+        <f>Resultate!H31</f>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f>Resultate!J31</f>
+        <v/>
+      </c>
+      <c r="I31" s="137">
+        <f>Resultate!K31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>Resultate!L31</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>Resultate!N31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>Resultate!O31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>Resultate!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>Resultate!R31</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>Resultate!T31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="137">
+        <f>Resultate!U31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="137">
+        <f>Resultate!V31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" t="str" cm="1">
+        <f t="array" ref="R31">IF(C31=0,"",_xlfn.LET(
+_xlpm.court,$C31,
+_xlpm.rngRows,ROW($C$2:$C$1000),
+_xlpm.mask,($C$2:$C$1000=_xlpm.court)*(_xlpm.rngRows&lt;=ROW()),
+_xlpm.g,_xlfn._xlws.FILTER($G$2:$G$1000,_xlpm.mask),
+_xlpm.h,_xlfn._xlws.FILTER($H$2:$H$1000,_xlpm.mask),
+_xlpm.blankMask,(_xlpm.g="")*(_xlpm.h=""),
+_xlpm.compMask,(_xlpm.g&lt;&gt;"")+(_xlpm.h&lt;&gt;""),
+_xlpm.lastCompPos,IFERROR(LOOKUP(2,1/(_xlpm.compMask&gt;0),_xlfn.SEQUENCE(ROWS(_xlpm.compMask))),0),
+_xlpm.currBlank,AND($G31="",$H31=""),
+_xlpm.blanksAfter,SUM((_xlfn.SEQUENCE(ROWS(_xlpm.blankMask))&gt;_xlpm.lastCompPos)*_xlpm.blankMask),
+IF(NOT(_xlpm.currBlank),
+"completed",
+IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
+)
+))</f>
+        <v>in_progress</v>
+      </c>
+      <c r="S31" t="s">
         <v>104</v>
       </c>
     </row>

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8A3471-F39C-493D-B8B4-5E4835EDC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADDE41-F1C5-4B40-A728-DE4962E8E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2415,8 +2415,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4480,31 +4480,39 @@
         <f>IF($H$29=$J$29,CONCATENATE("Winner Match #",$A$29),IF($H$29&gt;$J$29,$E$29,$G$29))</f>
         <v>Amabile / Padilla</v>
       </c>
-      <c r="H31" s="68" t="str">
+      <c r="H31" s="68">
         <f>IF(L31=N31,"",SUM(IF(L31&gt;N31,1,0),IF(O31&gt;Q31,1,0),IF(R31&lt;=T31,0,1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="68" t="str">
+      <c r="J31" s="68">
         <f>IF(L31=N31,"",SUM(IF(L31&lt;N31,1,0),IF(O31&lt;Q31,1,0),IF(R31&gt;=T31,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K31" s="97">
         <f>SUM(V31-U31)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="86"/>
+      <c r="L31" s="86">
+        <v>21</v>
+      </c>
       <c r="M31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
+      <c r="N31" s="84">
+        <v>15</v>
+      </c>
+      <c r="O31" s="84">
+        <v>21</v>
+      </c>
       <c r="P31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="84"/>
+      <c r="Q31" s="84">
+        <v>15</v>
+      </c>
       <c r="R31" s="82"/>
       <c r="S31" s="5" t="s">
         <v>17</v>
@@ -4532,7 +4540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16A65A-1428-48F4-B8B6-2C57407FD7EB}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:S31"/>
     </sheetView>
   </sheetViews>
@@ -7321,13 +7329,13 @@
         <f>Resultate!G31</f>
         <v>Amabile / Padilla</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31">
         <f>Resultate!H31</f>
-        <v/>
-      </c>
-      <c r="H31" t="str">
+        <v>2</v>
+      </c>
+      <c r="H31">
         <f>Resultate!J31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I31" s="137">
         <f>Resultate!K31</f>
@@ -7335,19 +7343,19 @@
       </c>
       <c r="J31">
         <f>Resultate!L31</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K31">
         <f>Resultate!N31</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L31">
         <f>Resultate!O31</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M31">
         <f>Resultate!Q31</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <f>Resultate!R31</f>
@@ -7382,7 +7390,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S31" t="s">
         <v>104</v>
@@ -7964,7 +7972,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="30" t="str">
         <f>CONCATENATE("(",Resultate!$H$31," : ",Resultate!$J$31,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="F26" s="32" t="str">
         <f>CONCATENATE("(",Resultate!$H$30," : ",Resultate!$J$30,")")</f>
@@ -8448,15 +8456,15 @@
       </c>
       <c r="B2" s="2" t="str">
         <f>IF(Resultate!$H$31=Resultate!$J$31,"1. Rang",IF(Resultate!$H$31&gt;Resultate!$J$31,Resultate!$E$31,Resultate!$G$31))</f>
-        <v>1. Rang</v>
+        <v>Billeter / Wüst</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>IF(B2="1. Rang","mal schauen",VLOOKUP(B2,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D2" s="44" t="str">
+        <v>Saina Billeter / Samantha Wüst</v>
+      </c>
+      <c r="D2" s="44">
         <f>IF(B2="1. Rang","zu Hause",VLOOKUP(B2,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8466,15 +8474,15 @@
       </c>
       <c r="B3" s="2" t="str">
         <f>IF(Resultate!$H$31=Resultate!$J$31,"2. Rang",IF(Resultate!$H$31&lt;Resultate!$J$31,Resultate!$E$31,Resultate!$G$31))</f>
-        <v>2. Rang</v>
+        <v>Amabile / Padilla</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>IF(B3="2. Rang","mal schauen",VLOOKUP(B3,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D3" s="44" t="str">
+        <v>Francesca Amabile / Meli Padilla</v>
+      </c>
+      <c r="D3" s="44">
         <f>IF(B3="2. Rang","zu Hause",VLOOKUP(B3,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/b3f.xlsx
+++ b/b3f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADDE41-F1C5-4B40-A728-DE4962E8E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB04CE-641E-4C2B-B8B7-B9DB4845B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4420,31 +4420,39 @@
         <f>IF($H$29=$J$29,CONCATENATE("Loser Match #",$A$29),IF($H$29&lt;$J$29,$E$29,$G$29))</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="H30" s="69" t="str">
+      <c r="H30" s="69">
         <f>IF(L30=N30,"",SUM(IF(L30&gt;N30,1,0),IF(O30&gt;Q30,1,0),IF(R30&lt;=T30,0,1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="69" t="str">
+      <c r="J30" s="69">
         <f>IF(L30=N30,"",SUM(IF(L30&lt;N30,1,0),IF(O30&lt;Q30,1,0),IF(R30&gt;=T30,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K30" s="101">
         <f>SUM(V30-U30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="102"/>
+      <c r="L30" s="102">
+        <v>21</v>
+      </c>
       <c r="M30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
+      <c r="N30" s="103">
+        <v>15</v>
+      </c>
+      <c r="O30" s="103">
+        <v>21</v>
+      </c>
       <c r="P30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q30" s="103"/>
+      <c r="Q30" s="103">
+        <v>15</v>
+      </c>
       <c r="R30" s="99"/>
       <c r="S30" s="7" t="s">
         <v>17</v>
@@ -7237,13 +7245,13 @@
         <f>Resultate!G30</f>
         <v>Schwab / Schinnerl</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30">
         <f>Resultate!H30</f>
-        <v/>
-      </c>
-      <c r="H30" t="str">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <f>Resultate!J30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I30" s="137">
         <f>Resultate!K30</f>
@@ -7251,19 +7259,19 @@
       </c>
       <c r="J30">
         <f>Resultate!L30</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K30">
         <f>Resultate!N30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L30">
         <f>Resultate!O30</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M30">
         <f>Resultate!Q30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <f>Resultate!R30</f>
@@ -7298,7 +7306,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S30" t="s">
         <v>104</v>
@@ -7976,7 +7984,7 @@
       </c>
       <c r="F26" s="32" t="str">
         <f>CONCATENATE("(",Resultate!$H$30," : ",Resultate!$J$30,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -8492,15 +8500,15 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>IF(Resultate!$H$30=Resultate!$J$30,"3. Rang",IF(Resultate!$H$30&gt;Resultate!$J$30,Resultate!$E$30,Resultate!$G$30))</f>
-        <v>3. Rang</v>
+        <v>Markl / Markl</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>IF(B4="3. Rang","mal schauen",VLOOKUP(B4,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D4" s="44" t="str">
+        <v>Alexa Leonie Markl / Maxima Julia Markl</v>
+      </c>
+      <c r="D4" s="44">
         <f>IF(B4="3. Rang","zu Hause",VLOOKUP(B4,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8510,15 +8518,15 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>IF(Resultate!$H$30=Resultate!$J$30,"4. Rang",IF(Resultate!$H$30&lt;Resultate!$J$30,Resultate!$E$30,Resultate!$G$30))</f>
-        <v>4. Rang</v>
+        <v>Schwab / Schinnerl</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>IF(B5="4. Rang","mal schauen",VLOOKUP(B5,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D5" s="44" t="str">
+        <v>Ramona Schwab / Aline Schinnerl</v>
+      </c>
+      <c r="D5" s="44">
         <f>IF(B5="4. Rang","zu Hause",VLOOKUP(B5,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
